--- a/results/scoresAll.xlsx
+++ b/results/scoresAll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B746BE3-2FEF-4638-8E3F-BF6D111EBD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7731B34-E53D-4B09-BE24-2B732E0AC62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="3210" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14090" yWindow="5200" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -603,10 +603,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -920,7 +920,7 @@
   <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,3241 +977,3241 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="C2" s="8">
-        <v>98.192871425220503</v>
+        <v>6734075.0334323803</v>
       </c>
       <c r="D2" s="4">
-        <v>43955</v>
+        <v>45320</v>
       </c>
       <c r="E2" s="4">
-        <v>43922</v>
+        <v>44115</v>
       </c>
       <c r="F2" s="8">
-        <v>22</v>
+        <v>101716</v>
       </c>
       <c r="G2" s="4">
-        <v>43920</v>
+        <v>43947</v>
       </c>
       <c r="H2" s="2">
-        <v>10.772119999999999</v>
+        <v>29060870</v>
       </c>
       <c r="I2" s="2">
-        <v>10.82776</v>
+        <v>49201420</v>
       </c>
       <c r="J2" s="6">
-        <v>0.2170513</v>
+        <v>0.97510580000000002</v>
       </c>
       <c r="K2" s="6">
-        <v>0.21300749999999999</v>
+        <v>0.95785299999999995</v>
       </c>
       <c r="L2" s="6">
-        <v>75.61797</v>
+        <v>47.532719999999998</v>
       </c>
       <c r="M2" s="6">
-        <v>94.96078</v>
+        <v>63.361280000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="C3" s="8">
-        <v>1055304.87173931</v>
+        <v>1937724.2071279499</v>
       </c>
       <c r="D3" s="4">
-        <v>44017</v>
+        <v>44603</v>
       </c>
       <c r="E3" s="4">
-        <v>43942</v>
+        <v>44057</v>
       </c>
       <c r="F3" s="8">
-        <v>124558.49733969029</v>
+        <v>48529</v>
       </c>
       <c r="G3" s="4">
-        <v>43959</v>
+        <v>43947</v>
       </c>
       <c r="H3" s="2">
-        <v>1.6829270000000001</v>
+        <v>9317963</v>
       </c>
       <c r="I3" s="2">
-        <v>1.3178970000000001</v>
+        <v>13250990</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.24955840000000001</v>
+        <v>0.94555699999999998</v>
       </c>
       <c r="K3" s="6">
-        <v>2.147315E-2</v>
+        <v>0.92257710000000004</v>
       </c>
       <c r="L3" s="6">
-        <v>19.233740000000001</v>
+        <v>26.58381</v>
       </c>
       <c r="M3" s="6">
-        <v>53.938090000000003</v>
+        <v>1568.559</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8">
-        <v>1.0000000000000699</v>
+        <v>1604198.2606462</v>
       </c>
       <c r="D4" s="4">
-        <v>43955</v>
+        <v>56899</v>
       </c>
       <c r="E4" s="4">
-        <v>43919</v>
+        <v>47256</v>
       </c>
       <c r="F4" s="8">
-        <v>2</v>
+        <v>3625.4124192486779</v>
       </c>
       <c r="G4" s="4">
-        <v>43917</v>
+        <v>44075</v>
       </c>
       <c r="H4" s="2">
-        <v>2.7777779999999998E-2</v>
+        <v>430.02050000000003</v>
       </c>
       <c r="I4" s="2">
-        <v>4.4621259999999998E-29</v>
+        <v>428.74380000000002</v>
       </c>
       <c r="J4" s="6">
-        <v>-2.8571429999999998E-2</v>
+        <v>0.44412220000000002</v>
       </c>
       <c r="K4" s="6">
-        <v>1</v>
+        <v>0.44577250000000002</v>
       </c>
       <c r="L4" s="6">
-        <v>1.388889</v>
+        <v>136.39670000000001</v>
       </c>
       <c r="M4" s="6">
-        <v>5.6186470000000003E-14</v>
+        <v>133.1652</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="C5" s="8">
-        <v>5887.9201109269197</v>
+        <v>1158074.1158477501</v>
       </c>
       <c r="D5" s="4">
-        <v>45451</v>
+        <v>44036</v>
       </c>
       <c r="E5" s="4">
-        <v>45286</v>
+        <v>43926</v>
       </c>
       <c r="F5" s="8">
-        <v>34</v>
+        <v>113131.3703610899</v>
       </c>
       <c r="G5" s="4">
-        <v>43947</v>
+        <v>43961</v>
       </c>
       <c r="H5" s="2">
-        <v>46.751890000000003</v>
+        <v>4.55</v>
       </c>
       <c r="I5" s="2">
-        <v>45.807859999999998</v>
+        <v>3.227608</v>
       </c>
       <c r="J5" s="6">
-        <v>0.29110770000000002</v>
+        <v>-0.33065260000000002</v>
       </c>
       <c r="K5" s="6">
-        <v>0.30542180000000002</v>
+        <v>5.6082380000000001E-2</v>
       </c>
       <c r="L5" s="6">
-        <v>62.919829999999997</v>
+        <v>21.877130000000001</v>
       </c>
       <c r="M5" s="6">
-        <v>62.356479999999998</v>
+        <v>86.424750000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8">
-        <v>830.22731112497604</v>
+        <v>1055304.87173931</v>
       </c>
       <c r="D6" s="4">
-        <v>43992</v>
+        <v>44017</v>
       </c>
       <c r="E6" s="4">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="F6" s="8">
-        <v>43</v>
+        <v>124558.49733969029</v>
       </c>
       <c r="G6" s="4">
-        <v>43918</v>
+        <v>43959</v>
       </c>
       <c r="H6" s="2">
-        <v>56.18327</v>
+        <v>1.6829270000000001</v>
       </c>
       <c r="I6" s="2">
-        <v>318.75</v>
+        <v>1.3178970000000001</v>
       </c>
       <c r="J6" s="6">
-        <v>0.65861890000000001</v>
+        <v>-0.24955840000000001</v>
       </c>
       <c r="K6" s="6">
-        <v>-0.93679060000000003</v>
+        <v>2.147315E-2</v>
       </c>
       <c r="L6" s="6">
-        <v>113.3023</v>
+        <v>19.233740000000001</v>
       </c>
       <c r="M6" s="6">
-        <v>64.752110000000002</v>
+        <v>53.938090000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C7" s="8">
-        <v>46394.660620476301</v>
+        <v>959793.62824012805</v>
       </c>
       <c r="D7" s="4">
-        <v>44395</v>
+        <v>44025</v>
       </c>
       <c r="E7" s="4">
-        <v>44140</v>
+        <v>43940</v>
       </c>
       <c r="F7" s="8">
-        <v>557</v>
+        <v>104663.6048298861</v>
       </c>
       <c r="G7" s="4">
-        <v>43953</v>
+        <v>43960</v>
       </c>
       <c r="H7" s="2">
-        <v>3299.799</v>
+        <v>11.578950000000001</v>
       </c>
       <c r="I7" s="2">
-        <v>3493.989</v>
+        <v>8.3980870000000003</v>
       </c>
       <c r="J7" s="6">
-        <v>0.90670640000000002</v>
+        <v>-0.28338970000000002</v>
       </c>
       <c r="K7" s="6">
-        <v>0.90121620000000002</v>
+        <v>6.9171250000000004E-2</v>
       </c>
       <c r="L7" s="6">
-        <v>840.72180000000003</v>
+        <v>28.215810000000001</v>
       </c>
       <c r="M7" s="6">
-        <v>947.02430000000004</v>
+        <v>97.222920000000002</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="C8" s="8">
-        <v>108680.974067926</v>
+        <v>529686.89311267994</v>
       </c>
       <c r="D8" s="4">
-        <v>56409</v>
+        <v>44527</v>
       </c>
       <c r="E8" s="4">
-        <v>43949</v>
+        <v>44100</v>
       </c>
       <c r="F8" s="8">
-        <v>344</v>
+        <v>7933</v>
       </c>
       <c r="G8" s="4">
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="H8" s="2">
-        <v>2761.8009999999999</v>
+        <v>54960.75</v>
       </c>
       <c r="I8" s="2">
-        <v>2880.5630000000001</v>
+        <v>59176.05</v>
       </c>
       <c r="J8" s="6">
-        <v>0.43415629999999999</v>
+        <v>0.98542540000000001</v>
       </c>
       <c r="K8" s="6">
-        <v>0.40982410000000002</v>
+        <v>0.9843075</v>
       </c>
       <c r="L8" s="6">
-        <v>975.64890000000003</v>
+        <v>24.52664</v>
       </c>
       <c r="M8" s="6">
-        <v>1072.904</v>
+        <v>75.91207</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C9" s="8">
-        <v>20773.5740314459</v>
+        <v>409418.33345003502</v>
       </c>
       <c r="D9" s="4">
-        <v>45240</v>
+        <v>45594</v>
       </c>
       <c r="E9" s="4">
-        <v>44838</v>
+        <v>44421</v>
       </c>
       <c r="F9" s="8">
-        <v>134</v>
+        <v>2607.2637211736601</v>
       </c>
       <c r="G9" s="4">
-        <v>43952</v>
+        <v>43980</v>
       </c>
       <c r="H9" s="2">
-        <v>207.86320000000001</v>
+        <v>8398.7189999999991</v>
       </c>
       <c r="I9" s="2">
-        <v>214.88630000000001</v>
+        <v>9114.0290000000005</v>
       </c>
       <c r="J9" s="6">
-        <v>0.71786570000000005</v>
+        <v>0.97326749999999995</v>
       </c>
       <c r="K9" s="6">
-        <v>0.7083332</v>
+        <v>0.97099069999999998</v>
       </c>
       <c r="L9" s="6">
-        <v>162.9659</v>
+        <v>22.38137</v>
       </c>
       <c r="M9" s="6">
-        <v>219.47120000000001</v>
+        <v>80.4709</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8">
-        <v>24.0462138576993</v>
+        <v>331124.21135469701</v>
       </c>
       <c r="D10" s="4">
-        <v>43955</v>
+        <v>44408</v>
       </c>
       <c r="E10" s="4">
-        <v>43927</v>
+        <v>44061</v>
       </c>
       <c r="F10" s="8">
-        <v>6</v>
+        <v>8719</v>
       </c>
       <c r="G10" s="4">
-        <v>43925</v>
+        <v>43933</v>
       </c>
       <c r="H10" s="2">
-        <v>1.6005419999999999</v>
+        <v>254101.4</v>
       </c>
       <c r="I10" s="2">
-        <v>1.3787160000000001</v>
+        <v>319485.8</v>
       </c>
       <c r="J10" s="6">
-        <v>-3.8189300000000002E-2</v>
+        <v>0.94534510000000005</v>
       </c>
       <c r="K10" s="6">
-        <v>0.10569770000000001</v>
+        <v>0.93128149999999998</v>
       </c>
       <c r="L10" s="6">
-        <v>22.828279999999999</v>
+        <v>20.143969999999999</v>
       </c>
       <c r="M10" s="6">
-        <v>46.028640000000003</v>
+        <v>211.71680000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="C11" s="8">
-        <v>6796.8718183635501</v>
+        <v>254087.1391269</v>
       </c>
       <c r="D11" s="4">
-        <v>43968</v>
+        <v>51845</v>
       </c>
       <c r="E11" s="4">
-        <v>43942</v>
+        <v>47866</v>
       </c>
       <c r="F11" s="8">
-        <v>611</v>
+        <v>1545</v>
       </c>
       <c r="G11" s="4">
-        <v>43913</v>
+        <v>43953</v>
       </c>
       <c r="H11" s="2">
-        <v>2543.2440000000001</v>
+        <v>33145.160000000003</v>
       </c>
       <c r="I11" s="2">
-        <v>2776.672</v>
+        <v>33708.879999999997</v>
       </c>
       <c r="J11" s="6">
-        <v>0.81153529999999996</v>
+        <v>0.53030529999999998</v>
       </c>
       <c r="K11" s="6">
-        <v>0.79423730000000003</v>
+        <v>0.52231689999999997</v>
       </c>
       <c r="L11" s="6">
-        <v>31.848790000000001</v>
+        <v>1842.799</v>
       </c>
       <c r="M11" s="6">
-        <v>36.772359999999999</v>
+        <v>2079.6979999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C12" s="8">
-        <v>15780.9642068745</v>
+        <v>253022.35415103001</v>
       </c>
       <c r="D12" s="4">
-        <v>43991</v>
+        <v>44262</v>
       </c>
       <c r="E12" s="4">
-        <v>43951</v>
+        <v>44009</v>
       </c>
       <c r="F12" s="8">
-        <v>1141</v>
+        <v>6557</v>
       </c>
       <c r="G12" s="4">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="H12" s="2">
-        <v>4071.4749999999999</v>
+        <v>151938.29999999999</v>
       </c>
       <c r="I12" s="2">
-        <v>5328.7250000000004</v>
+        <v>354537</v>
       </c>
       <c r="J12" s="6">
-        <v>0.91530330000000004</v>
+        <v>0.96193010000000001</v>
       </c>
       <c r="K12" s="6">
-        <v>0.88914939999999998</v>
+        <v>0.9111667</v>
       </c>
       <c r="L12" s="6">
-        <v>23.075050000000001</v>
+        <v>14.546099999999999</v>
       </c>
       <c r="M12" s="6">
-        <v>34.07544</v>
+        <v>1577.9490000000001</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C13" s="8">
-        <v>2209.9148541930199</v>
+        <v>236736.95442717799</v>
       </c>
       <c r="D13" s="4">
-        <v>44008</v>
+        <v>44104</v>
       </c>
       <c r="E13" s="4">
-        <v>43980</v>
+        <v>43941</v>
       </c>
       <c r="F13" s="8">
-        <v>105</v>
+        <v>9222</v>
       </c>
       <c r="G13" s="4">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="H13" s="2">
-        <v>80.359589999999997</v>
+        <v>466988.1</v>
       </c>
       <c r="I13" s="2">
-        <v>103.7072</v>
+        <v>658888.19999999995</v>
       </c>
       <c r="J13" s="6">
-        <v>0.8621645</v>
+        <v>0.93150900000000003</v>
       </c>
       <c r="K13" s="6">
-        <v>0.82211789999999996</v>
+        <v>0.90336380000000005</v>
       </c>
       <c r="L13" s="6">
-        <v>19.757670000000001</v>
+        <v>3682.0439999999999</v>
       </c>
       <c r="M13" s="6">
-        <v>47.14913</v>
+        <v>2917.9009999999998</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="C14" s="8">
-        <v>13.000000015538999</v>
+        <v>234218.42174047499</v>
       </c>
       <c r="D14" s="4">
-        <v>43955</v>
+        <v>45099</v>
       </c>
       <c r="E14" s="4">
-        <v>43946</v>
+        <v>44195</v>
       </c>
       <c r="F14" s="8">
-        <v>5</v>
+        <v>5138</v>
       </c>
       <c r="G14" s="4">
-        <v>43944</v>
+        <v>43933</v>
       </c>
       <c r="H14" s="2">
-        <v>1.322581</v>
+        <v>226776.7</v>
       </c>
       <c r="I14" s="2">
-        <v>0.85918139999999998</v>
+        <v>148516.6</v>
       </c>
       <c r="J14" s="6">
-        <v>-0.15335750000000001</v>
+        <v>0.91531680000000004</v>
       </c>
       <c r="K14" s="6">
-        <v>0.25075009999999998</v>
+        <v>0.94454079999999996</v>
       </c>
       <c r="L14" s="6">
-        <v>12.096769999999999</v>
+        <v>30.951000000000001</v>
       </c>
       <c r="M14" s="6">
-        <v>25.923639999999999</v>
+        <v>555.86710000000005</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8">
-        <v>65256.634052600297</v>
+        <v>181368.51033613001</v>
       </c>
       <c r="D15" s="4">
-        <v>44154</v>
+        <v>44121</v>
       </c>
       <c r="E15" s="4">
-        <v>44009</v>
+        <v>43953</v>
       </c>
       <c r="F15" s="8">
-        <v>2454</v>
+        <v>6294</v>
       </c>
       <c r="G15" s="4">
-        <v>43937</v>
+        <v>43918</v>
       </c>
       <c r="H15" s="2">
-        <v>38816.1</v>
+        <v>339137.1</v>
       </c>
       <c r="I15" s="2">
-        <v>40978.629999999997</v>
+        <v>449665.8</v>
       </c>
       <c r="J15" s="6">
-        <v>0.88476239999999995</v>
+        <v>0.90697479999999997</v>
       </c>
       <c r="K15" s="6">
-        <v>0.87834230000000002</v>
+        <v>0.87665680000000001</v>
       </c>
       <c r="L15" s="6">
-        <v>18.758600000000001</v>
+        <v>1013.652</v>
       </c>
       <c r="M15" s="6">
-        <v>134.3442</v>
+        <v>582.88580000000002</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8">
-        <v>3.9999999999106199</v>
+        <v>147794.67815436301</v>
       </c>
       <c r="D16" s="4">
-        <v>43955</v>
+        <v>44115</v>
       </c>
       <c r="E16" s="4">
-        <v>43925</v>
+        <v>43980</v>
       </c>
       <c r="F16" s="8">
-        <v>2</v>
+        <v>7578</v>
       </c>
       <c r="G16" s="4">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="H16" s="2">
-        <v>0.13333329999999999</v>
+        <v>392585.3</v>
       </c>
       <c r="I16" s="2">
-        <v>0.13333329999999999</v>
+        <v>414258.6</v>
       </c>
       <c r="J16" s="6">
-        <v>-0.15384619999999999</v>
+        <v>0.84205099999999999</v>
       </c>
       <c r="K16" s="6">
-        <v>-0.15384619999999999</v>
+        <v>0.83333120000000005</v>
       </c>
       <c r="L16" s="6">
-        <v>6.6666670000000003</v>
+        <v>32.358849999999997</v>
       </c>
       <c r="M16" s="6">
-        <v>6.6666670000000003</v>
+        <v>134.36080000000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="C17" s="8">
-        <v>845.464286488472</v>
+        <v>143778.73999595299</v>
       </c>
       <c r="D17" s="4">
-        <v>44028</v>
+        <v>44835</v>
       </c>
       <c r="E17" s="4">
-        <v>44007</v>
+        <v>44273</v>
       </c>
       <c r="F17" s="8">
-        <v>43</v>
+        <v>1155.972087139668</v>
       </c>
       <c r="G17" s="4">
-        <v>43927</v>
+        <v>43977</v>
       </c>
       <c r="H17" s="2">
-        <v>91.627629999999996</v>
+        <v>3705.37</v>
       </c>
       <c r="I17" s="2">
-        <v>292.25</v>
+        <v>3464.6039999999998</v>
       </c>
       <c r="J17" s="6">
-        <v>0.33332139999999999</v>
+        <v>0.92881570000000002</v>
       </c>
       <c r="K17" s="6">
-        <v>-1.126398</v>
+        <v>0.93344110000000002</v>
       </c>
       <c r="L17" s="6">
-        <v>201.85659999999999</v>
+        <v>99.137569999999997</v>
       </c>
       <c r="M17" s="6">
-        <v>72.98706</v>
+        <v>90.018330000000006</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C18" s="8">
-        <v>53126.508961049003</v>
+        <v>139331.27339980699</v>
       </c>
       <c r="D18" s="4">
-        <v>44670</v>
+        <v>44537</v>
       </c>
       <c r="E18" s="4">
-        <v>44249</v>
+        <v>44135</v>
       </c>
       <c r="F18" s="8">
-        <v>641</v>
+        <v>2046</v>
       </c>
       <c r="G18" s="4">
-        <v>43951</v>
+        <v>43942</v>
       </c>
       <c r="H18" s="2">
-        <v>1380.511</v>
+        <v>21198.04</v>
       </c>
       <c r="I18" s="2">
-        <v>1600.953</v>
+        <v>26365.02</v>
       </c>
       <c r="J18" s="6">
-        <v>0.96433429999999998</v>
+        <v>0.95181970000000005</v>
       </c>
       <c r="K18" s="6">
-        <v>0.95863920000000002</v>
+        <v>0.94007580000000002</v>
       </c>
       <c r="L18" s="6">
-        <v>30.88522</v>
+        <v>28.194230000000001</v>
       </c>
       <c r="M18" s="6">
-        <v>118.7958</v>
+        <v>210.56219999999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C19" s="8">
-        <v>30258.052205886001</v>
+        <v>135771.70974456999</v>
       </c>
       <c r="D19" s="4">
-        <v>45006</v>
+        <v>45009</v>
       </c>
       <c r="E19" s="4">
-        <v>44573</v>
+        <v>44290</v>
       </c>
       <c r="F19" s="8">
-        <v>301</v>
+        <v>1434.2402802228471</v>
       </c>
       <c r="G19" s="4">
-        <v>43946</v>
+        <v>43958</v>
       </c>
       <c r="H19" s="2">
-        <v>1048.01</v>
+        <v>9184.9930000000004</v>
       </c>
       <c r="I19" s="2">
-        <v>1038.1479999999999</v>
+        <v>7506.71</v>
       </c>
       <c r="J19" s="6">
-        <v>0.56611259999999997</v>
+        <v>0.95929350000000002</v>
       </c>
       <c r="K19" s="6">
-        <v>0.57019549999999997</v>
+        <v>0.96673140000000002</v>
       </c>
       <c r="L19" s="6">
-        <v>98.322760000000002</v>
+        <v>154.97630000000001</v>
       </c>
       <c r="M19" s="6">
-        <v>102.1972</v>
+        <v>245.19810000000001</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="8">
-        <v>5541.8665225368304</v>
+        <v>135374.909303375</v>
       </c>
       <c r="D20" s="4">
-        <v>44533</v>
+        <v>44716</v>
       </c>
       <c r="E20" s="4">
-        <v>44400</v>
+        <v>44229</v>
       </c>
       <c r="F20" s="8">
-        <v>101</v>
+        <v>1485</v>
       </c>
       <c r="G20" s="4">
-        <v>43952</v>
+        <v>43942</v>
       </c>
       <c r="H20" s="2">
-        <v>371.18369999999999</v>
+        <v>12757.87</v>
       </c>
       <c r="I20" s="2">
-        <v>421.84949999999998</v>
+        <v>12785.5</v>
       </c>
       <c r="J20" s="6">
-        <v>0.44502779999999997</v>
+        <v>0.82928849999999998</v>
       </c>
       <c r="K20" s="6">
-        <v>0.36927510000000002</v>
+        <v>0.82891879999999996</v>
       </c>
       <c r="L20" s="6">
-        <v>223.71199999999999</v>
+        <v>1040.3879999999999</v>
       </c>
       <c r="M20" s="6">
-        <v>351.81509999999997</v>
+        <v>1101.4780000000001</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C21" s="8">
-        <v>135374.909303375</v>
+        <v>126048.49376958099</v>
       </c>
       <c r="D21" s="4">
-        <v>44716</v>
+        <v>44267</v>
       </c>
       <c r="E21" s="4">
-        <v>44229</v>
+        <v>44027</v>
       </c>
       <c r="F21" s="8">
-        <v>1485</v>
+        <v>5275</v>
       </c>
       <c r="G21" s="4">
-        <v>43942</v>
+        <v>43926</v>
       </c>
       <c r="H21" s="2">
-        <v>12757.87</v>
+        <v>211144.5</v>
       </c>
       <c r="I21" s="2">
-        <v>12785.5</v>
+        <v>188036.7</v>
       </c>
       <c r="J21" s="6">
-        <v>0.82928849999999998</v>
+        <v>0.77963470000000001</v>
       </c>
       <c r="K21" s="6">
-        <v>0.82891879999999996</v>
+        <v>0.80375169999999996</v>
       </c>
       <c r="L21" s="6">
-        <v>1040.3879999999999</v>
+        <v>1847.8</v>
       </c>
       <c r="M21" s="6">
-        <v>1101.4780000000001</v>
+        <v>2313.8539999999998</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C22" s="8">
-        <v>17.000000000008399</v>
+        <v>108680.974067926</v>
       </c>
       <c r="D22" s="4">
-        <v>43955</v>
+        <v>56409</v>
       </c>
       <c r="E22" s="4">
-        <v>43936</v>
+        <v>43949</v>
       </c>
       <c r="F22" s="8">
-        <v>4</v>
+        <v>344</v>
       </c>
       <c r="G22" s="4">
-        <v>43935</v>
+        <v>43947</v>
       </c>
       <c r="H22" s="2">
-        <v>0.9487179</v>
+        <v>2761.8009999999999</v>
       </c>
       <c r="I22" s="2">
-        <v>0.44054529999999997</v>
+        <v>2880.5630000000001</v>
       </c>
       <c r="J22" s="6">
-        <v>-0.25043330000000003</v>
+        <v>0.43415629999999999</v>
       </c>
       <c r="K22" s="6">
-        <v>0.41935060000000002</v>
+        <v>0.40982410000000002</v>
       </c>
       <c r="L22" s="6">
-        <v>15.94017</v>
+        <v>975.64890000000003</v>
       </c>
       <c r="M22" s="6">
-        <v>16.778379999999999</v>
+        <v>1072.904</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8">
-        <v>112</v>
+        <v>84170.745285090801</v>
       </c>
       <c r="D23" s="4">
-        <v>43955</v>
+        <v>44018</v>
       </c>
       <c r="E23" s="4">
-        <v>43940</v>
+        <v>43917</v>
       </c>
       <c r="F23" s="8">
-        <v>24</v>
+        <v>15141</v>
       </c>
       <c r="G23" s="4">
-        <v>43937</v>
+        <v>43874</v>
       </c>
       <c r="H23" s="2">
-        <v>27.25581</v>
+        <v>1403876</v>
       </c>
       <c r="I23" s="2">
-        <v>19.922149999999998</v>
+        <v>1276950</v>
       </c>
       <c r="J23" s="6">
-        <v>-0.33139600000000002</v>
+        <v>0.48289009999999999</v>
       </c>
       <c r="K23" s="6">
-        <v>2.6839809999999999E-2</v>
+        <v>0.52964239999999996</v>
       </c>
       <c r="L23" s="6">
-        <v>36.861629999999998</v>
+        <v>114.0369</v>
       </c>
       <c r="M23" s="6">
-        <v>153.9068</v>
+        <v>202.8817</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C24" s="8">
-        <v>80.200416998694195</v>
+        <v>82565.9151028622</v>
       </c>
       <c r="D24" s="4">
-        <v>43955</v>
+        <v>89638</v>
       </c>
       <c r="E24" s="4">
-        <v>43925</v>
+        <v>43947</v>
       </c>
       <c r="F24" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="H24" s="2">
-        <v>6.3737250000000003</v>
+        <v>6.1363060000000003</v>
       </c>
       <c r="I24" s="2">
-        <v>5.0793549999999996</v>
+        <v>6.085623</v>
       </c>
       <c r="J24" s="6">
-        <v>-1.071213E-2</v>
+        <v>6.6938319999999996E-2</v>
       </c>
       <c r="K24" s="6">
-        <v>0.1945424</v>
+        <v>7.4645059999999999E-2</v>
       </c>
       <c r="L24" s="6">
-        <v>59.8583</v>
+        <v>90.95299</v>
       </c>
       <c r="M24" s="6">
-        <v>84.251480000000001</v>
+        <v>96.248019999999997</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="C25" s="8">
-        <v>137.18353571869201</v>
+        <v>68670.818085280902</v>
       </c>
       <c r="D25" s="4">
-        <v>43955</v>
+        <v>44676</v>
       </c>
       <c r="E25" s="4">
-        <v>43926</v>
+        <v>44242</v>
       </c>
       <c r="F25" s="8">
-        <v>14</v>
+        <v>812</v>
       </c>
       <c r="G25" s="4">
-        <v>43903</v>
+        <v>43946</v>
       </c>
       <c r="H25" s="2">
-        <v>6.2955290000000002</v>
+        <v>5332.9359999999997</v>
       </c>
       <c r="I25" s="2">
-        <v>6.2141270000000004</v>
+        <v>5450.72</v>
       </c>
       <c r="J25" s="6">
-        <v>0.57050219999999996</v>
+        <v>0.90974549999999998</v>
       </c>
       <c r="K25" s="6">
-        <v>0.57605569999999995</v>
+        <v>0.90775209999999995</v>
       </c>
       <c r="L25" s="6">
-        <v>41.705800000000004</v>
+        <v>20.548030000000001</v>
       </c>
       <c r="M25" s="6">
-        <v>49.265410000000003</v>
+        <v>151.0367</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C26" s="8">
-        <v>6</v>
+        <v>65256.634052600297</v>
       </c>
       <c r="D26" s="4">
-        <v>43955</v>
+        <v>44154</v>
       </c>
       <c r="E26" s="4">
-        <v>43898</v>
+        <v>44009</v>
       </c>
       <c r="F26" s="8">
-        <v>1</v>
+        <v>2454</v>
       </c>
       <c r="G26" s="4">
-        <v>43896</v>
+        <v>43937</v>
       </c>
       <c r="H26" s="2">
-        <v>8.77193E-2</v>
+        <v>38816.1</v>
       </c>
       <c r="I26" s="2">
-        <v>0.1052632</v>
+        <v>40978.629999999997</v>
       </c>
       <c r="J26" s="6">
-        <v>6.8627450000000007E-2</v>
+        <v>0.88476239999999995</v>
       </c>
       <c r="K26" s="6">
-        <v>-0.1176471</v>
+        <v>0.87834230000000002</v>
       </c>
       <c r="L26" s="6">
-        <v>4.3859690000000002</v>
+        <v>18.758600000000001</v>
       </c>
       <c r="M26" s="6">
-        <v>5.2631579999999998</v>
+        <v>134.3442</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C27" s="8">
-        <v>20</v>
+        <v>53126.508961049003</v>
       </c>
       <c r="D27" s="4">
-        <v>43955</v>
+        <v>44670</v>
       </c>
       <c r="E27" s="4">
-        <v>43933</v>
+        <v>44249</v>
       </c>
       <c r="F27" s="8">
-        <v>6</v>
+        <v>641</v>
       </c>
       <c r="G27" s="4">
-        <v>43931</v>
+        <v>43951</v>
       </c>
       <c r="H27" s="2">
-        <v>2.451613</v>
+        <v>1380.511</v>
       </c>
       <c r="I27" s="2">
-        <v>1.9570749999999999</v>
+        <v>1600.953</v>
       </c>
       <c r="J27" s="6">
-        <v>-0.20449899999999999</v>
+        <v>0.96433429999999998</v>
       </c>
       <c r="K27" s="6">
-        <v>3.8472069999999997E-2</v>
+        <v>0.95863920000000002</v>
       </c>
       <c r="L27" s="6">
-        <v>16.743469999999999</v>
+        <v>30.88522</v>
       </c>
       <c r="M27" s="6">
-        <v>58.679090000000002</v>
+        <v>118.7958</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C28" s="8">
-        <v>139331.27339980699</v>
+        <v>53056.671658869498</v>
       </c>
       <c r="D28" s="4">
-        <v>44537</v>
+        <v>44163</v>
       </c>
       <c r="E28" s="4">
-        <v>44135</v>
+        <v>44014</v>
       </c>
       <c r="F28" s="8">
-        <v>2046</v>
+        <v>1335</v>
       </c>
       <c r="G28" s="4">
-        <v>43942</v>
+        <v>43932</v>
       </c>
       <c r="H28" s="2">
-        <v>21198.04</v>
+        <v>10735.42</v>
       </c>
       <c r="I28" s="2">
-        <v>26365.02</v>
+        <v>10950.32</v>
       </c>
       <c r="J28" s="6">
-        <v>0.95181970000000005</v>
+        <v>0.94333619999999996</v>
       </c>
       <c r="K28" s="6">
-        <v>0.94007580000000002</v>
+        <v>0.94220190000000004</v>
       </c>
       <c r="L28" s="6">
-        <v>28.194230000000001</v>
+        <v>16.446870000000001</v>
       </c>
       <c r="M28" s="6">
-        <v>210.56219999999999</v>
+        <v>140.9777</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="C29" s="8">
-        <v>31406.853358564898</v>
+        <v>49026.707299503301</v>
       </c>
       <c r="D29" s="4">
-        <v>44038</v>
+        <v>47587</v>
       </c>
       <c r="E29" s="4">
-        <v>43964</v>
+        <v>46482</v>
       </c>
       <c r="F29" s="8">
-        <v>1390</v>
+        <v>279</v>
       </c>
       <c r="G29" s="4">
-        <v>43918</v>
+        <v>43930</v>
       </c>
       <c r="H29" s="2">
-        <v>11374.82</v>
+        <v>1650.8340000000001</v>
       </c>
       <c r="I29" s="2">
-        <v>13882.59</v>
+        <v>1858.4970000000001</v>
       </c>
       <c r="J29" s="6">
-        <v>0.91528200000000004</v>
+        <v>0.73578149999999998</v>
       </c>
       <c r="K29" s="6">
-        <v>0.89660450000000003</v>
+        <v>0.70254459999999996</v>
       </c>
       <c r="L29" s="6">
-        <v>383.81740000000002</v>
+        <v>43.685020000000002</v>
       </c>
       <c r="M29" s="6">
-        <v>476.27780000000001</v>
+        <v>127.34310000000001</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C30" s="8">
-        <v>84170.745285090801</v>
+        <v>46394.660620476301</v>
       </c>
       <c r="D30" s="4">
-        <v>44018</v>
+        <v>44395</v>
       </c>
       <c r="E30" s="4">
-        <v>43917</v>
+        <v>44140</v>
       </c>
       <c r="F30" s="8">
-        <v>15141</v>
+        <v>557</v>
       </c>
       <c r="G30" s="4">
-        <v>43874</v>
+        <v>43953</v>
       </c>
       <c r="H30" s="2">
-        <v>1403876</v>
+        <v>3299.799</v>
       </c>
       <c r="I30" s="2">
-        <v>1276950</v>
+        <v>3493.989</v>
       </c>
       <c r="J30" s="6">
-        <v>0.48289009999999999</v>
+        <v>0.90670640000000002</v>
       </c>
       <c r="K30" s="6">
-        <v>0.52964239999999996</v>
+        <v>0.90121620000000002</v>
       </c>
       <c r="L30" s="6">
-        <v>114.0369</v>
+        <v>840.72180000000003</v>
       </c>
       <c r="M30" s="6">
-        <v>202.8817</v>
+        <v>947.02430000000004</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="C31" s="8">
-        <v>14618.0462051386</v>
+        <v>37302.477468086799</v>
       </c>
       <c r="D31" s="4">
-        <v>46154</v>
+        <v>44354</v>
       </c>
       <c r="E31" s="4">
-        <v>45771</v>
+        <v>44086</v>
       </c>
       <c r="F31" s="8">
-        <v>73</v>
+        <v>1516</v>
       </c>
       <c r="G31" s="4">
-        <v>43946</v>
+        <v>43932</v>
       </c>
       <c r="H31" s="2">
-        <v>217.94829999999999</v>
+        <v>26182.9</v>
       </c>
       <c r="I31" s="2">
-        <v>217.74420000000001</v>
+        <v>32011.919999999998</v>
       </c>
       <c r="J31" s="6">
-        <v>0.52050280000000004</v>
+        <v>0.75250260000000002</v>
       </c>
       <c r="K31" s="6">
-        <v>0.52095199999999997</v>
+        <v>0.69740290000000005</v>
       </c>
       <c r="L31" s="6">
-        <v>188.03989999999999</v>
+        <v>41.461300000000001</v>
       </c>
       <c r="M31" s="6">
-        <v>219.57259999999999</v>
+        <v>222.404</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C32" s="8">
-        <v>229.896578161409</v>
+        <v>35581.360478333903</v>
       </c>
       <c r="D32" s="4">
-        <v>43956</v>
+        <v>44458</v>
       </c>
       <c r="E32" s="4">
-        <v>43939</v>
+        <v>44185</v>
       </c>
       <c r="F32" s="8">
-        <v>43</v>
+        <v>436</v>
       </c>
       <c r="G32" s="4">
-        <v>43937</v>
+        <v>43946</v>
       </c>
       <c r="H32" s="2">
-        <v>65.154089999999997</v>
+        <v>1236.0309999999999</v>
       </c>
       <c r="I32" s="2">
-        <v>66.67022</v>
+        <v>1220.6469999999999</v>
       </c>
       <c r="J32" s="6">
-        <v>0.15546660000000001</v>
+        <v>0.92908380000000002</v>
       </c>
       <c r="K32" s="6">
-        <v>0.1358143</v>
+        <v>0.92996639999999997</v>
       </c>
       <c r="L32" s="6">
-        <v>174.48929999999999</v>
+        <v>51.956319999999998</v>
       </c>
       <c r="M32" s="6">
-        <v>253.68520000000001</v>
+        <v>124.05710000000001</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C33" s="8">
-        <v>890.09733265611703</v>
+        <v>35113.102803112102</v>
       </c>
       <c r="D33" s="4">
-        <v>44020</v>
+        <v>44887</v>
       </c>
       <c r="E33" s="4">
-        <v>43947</v>
+        <v>44409</v>
       </c>
       <c r="F33" s="8">
-        <v>37</v>
+        <v>545</v>
       </c>
       <c r="G33" s="4">
-        <v>43931</v>
+        <v>43941</v>
       </c>
       <c r="H33" s="2">
-        <v>32.112070000000003</v>
+        <v>3083.788</v>
       </c>
       <c r="I33" s="2">
-        <v>252.3929</v>
+        <v>3420.7510000000002</v>
       </c>
       <c r="J33" s="6">
-        <v>0.62329630000000003</v>
+        <v>0.87227679999999996</v>
       </c>
       <c r="K33" s="6">
-        <v>-1.9607969999999999</v>
+        <v>0.85832059999999999</v>
       </c>
       <c r="L33" s="6">
-        <v>58.339860000000002</v>
+        <v>29.895209999999999</v>
       </c>
       <c r="M33" s="6">
-        <v>84.872079999999997</v>
+        <v>110.4512</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C34" s="8">
-        <v>3743.3184387573201</v>
+        <v>31406.853358564898</v>
       </c>
       <c r="D34" s="4">
-        <v>44255</v>
+        <v>44038</v>
       </c>
       <c r="E34" s="4">
-        <v>44172</v>
+        <v>43964</v>
       </c>
       <c r="F34" s="8">
-        <v>63</v>
+        <v>1390</v>
       </c>
       <c r="G34" s="4">
-        <v>43940</v>
+        <v>43918</v>
       </c>
       <c r="H34" s="2">
-        <v>71.325519999999997</v>
+        <v>11374.82</v>
       </c>
       <c r="I34" s="2">
-        <v>54.667119999999997</v>
+        <v>13882.59</v>
       </c>
       <c r="J34" s="6">
-        <v>0.82939430000000003</v>
+        <v>0.91528200000000004</v>
       </c>
       <c r="K34" s="6">
-        <v>0.86924000000000001</v>
+        <v>0.89660450000000003</v>
       </c>
       <c r="L34" s="6">
-        <v>28.484480000000001</v>
+        <v>383.81740000000002</v>
       </c>
       <c r="M34" s="6">
-        <v>34.679929999999999</v>
+        <v>476.27780000000001</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C35" s="8">
-        <v>15.00463497386</v>
+        <v>30258.052205886001</v>
       </c>
       <c r="D35" s="4">
-        <v>43955</v>
+        <v>45006</v>
       </c>
       <c r="E35" s="4">
-        <v>43916</v>
+        <v>44573</v>
       </c>
       <c r="F35" s="8">
-        <v>3</v>
+        <v>301</v>
       </c>
       <c r="G35" s="4">
-        <v>43914</v>
+        <v>43946</v>
       </c>
       <c r="H35" s="2">
-        <v>0.52279189999999998</v>
+        <v>1048.01</v>
       </c>
       <c r="I35" s="2">
-        <v>0.4429092</v>
+        <v>1038.1479999999999</v>
       </c>
       <c r="J35" s="6">
-        <v>-6.6922159999999994E-2</v>
+        <v>0.56611259999999997</v>
       </c>
       <c r="K35" s="6">
-        <v>9.6103649999999999E-2</v>
+        <v>0.57019549999999997</v>
       </c>
       <c r="L35" s="6">
-        <v>13.75319</v>
+        <v>98.322760000000002</v>
       </c>
       <c r="M35" s="6">
-        <v>25.470880000000001</v>
+        <v>102.1972</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C36" s="8">
-        <v>73.073226964141895</v>
+        <v>27693.837998513402</v>
       </c>
       <c r="D36" s="4">
-        <v>43955</v>
+        <v>44080</v>
       </c>
       <c r="E36" s="4">
-        <v>43929</v>
+        <v>43994</v>
       </c>
       <c r="F36" s="8">
-        <v>8</v>
+        <v>1169</v>
       </c>
       <c r="G36" s="4">
-        <v>43923</v>
+        <v>43931</v>
       </c>
       <c r="H36" s="2">
-        <v>4.8128979999999997</v>
+        <v>11724.74</v>
       </c>
       <c r="I36" s="2">
-        <v>5.0977790000000001</v>
+        <v>9490.973</v>
       </c>
       <c r="J36" s="6">
-        <v>0.18863530000000001</v>
+        <v>0.84385619999999995</v>
       </c>
       <c r="K36" s="6">
-        <v>0.1406097</v>
+        <v>0.8736043</v>
       </c>
       <c r="L36" s="6">
-        <v>61.189720000000001</v>
+        <v>25.913530000000002</v>
       </c>
       <c r="M36" s="6">
-        <v>88.4131</v>
+        <v>21.826090000000001</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C37" s="8">
-        <v>960.79222144298296</v>
+        <v>24088.4880744086</v>
       </c>
       <c r="D37" s="4">
-        <v>43994</v>
+        <v>44031</v>
       </c>
       <c r="E37" s="4">
-        <v>43940</v>
+        <v>43979</v>
       </c>
       <c r="F37" s="8">
-        <v>58</v>
+        <v>1515</v>
       </c>
       <c r="G37" s="4">
-        <v>43923</v>
+        <v>43947</v>
       </c>
       <c r="H37" s="2">
-        <v>71.984070000000003</v>
+        <v>16824.509999999998</v>
       </c>
       <c r="I37" s="2">
-        <v>60.85454</v>
+        <v>16902.7</v>
       </c>
       <c r="J37" s="6">
-        <v>0.53979239999999995</v>
+        <v>0.82357939999999996</v>
       </c>
       <c r="K37" s="6">
-        <v>0.61094559999999998</v>
+        <v>0.82275949999999998</v>
       </c>
       <c r="L37" s="6">
-        <v>70.956639999999993</v>
+        <v>912.30690000000004</v>
       </c>
       <c r="M37" s="6">
-        <v>102.0766</v>
+        <v>1018.384</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C38" s="8">
-        <v>8528.2313716944609</v>
+        <v>22192.784118653399</v>
       </c>
       <c r="D38" s="4">
-        <v>44026</v>
+        <v>44366</v>
       </c>
       <c r="E38" s="4">
-        <v>43973</v>
+        <v>43950</v>
       </c>
       <c r="F38" s="8">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="G38" s="4">
-        <v>43917</v>
+        <v>43939</v>
       </c>
       <c r="H38" s="2">
-        <v>1338.8140000000001</v>
+        <v>1788.922</v>
       </c>
       <c r="I38" s="2">
-        <v>1563.8710000000001</v>
+        <v>1848.3230000000001</v>
       </c>
       <c r="J38" s="6">
-        <v>0.85185029999999995</v>
+        <v>0.81231580000000003</v>
       </c>
       <c r="K38" s="6">
-        <v>0.82694610000000002</v>
+        <v>0.80608380000000002</v>
       </c>
       <c r="L38" s="6">
-        <v>20.1129</v>
+        <v>304.9633</v>
       </c>
       <c r="M38" s="6">
-        <v>59.313029999999998</v>
+        <v>420.07600000000002</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C39" s="8">
-        <v>181368.51033613001</v>
+        <v>22102.125103220002</v>
       </c>
       <c r="D39" s="4">
-        <v>44121</v>
+        <v>44189</v>
       </c>
       <c r="E39" s="4">
-        <v>43953</v>
+        <v>44053</v>
       </c>
       <c r="F39" s="8">
-        <v>6294</v>
+        <v>523</v>
       </c>
       <c r="G39" s="4">
-        <v>43918</v>
+        <v>43933</v>
       </c>
       <c r="H39" s="2">
-        <v>339137.1</v>
+        <v>1983.893</v>
       </c>
       <c r="I39" s="2">
-        <v>449665.8</v>
+        <v>2286.6529999999998</v>
       </c>
       <c r="J39" s="6">
-        <v>0.90697479999999997</v>
+        <v>0.91271809999999998</v>
       </c>
       <c r="K39" s="6">
-        <v>0.87665680000000001</v>
+        <v>0.89939809999999998</v>
       </c>
       <c r="L39" s="6">
-        <v>1013.652</v>
+        <v>16.827059999999999</v>
       </c>
       <c r="M39" s="6">
-        <v>582.88580000000002</v>
+        <v>87.825810000000004</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C40" s="8">
-        <v>14.999999999990701</v>
+        <v>21386.984030378</v>
       </c>
       <c r="D40" s="4">
-        <v>43955</v>
+        <v>46832</v>
       </c>
       <c r="E40" s="4">
-        <v>43919</v>
+        <v>46287</v>
       </c>
       <c r="F40" s="8">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G40" s="4">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="H40" s="2">
-        <v>1.2250000000000001</v>
+        <v>60.76267</v>
       </c>
       <c r="I40" s="2">
-        <v>0.17966460000000001</v>
+        <v>59.013509999999997</v>
       </c>
       <c r="J40" s="6">
-        <v>-0.12968299999999999</v>
+        <v>0.67249289999999995</v>
       </c>
       <c r="K40" s="6">
-        <v>0.83431509999999998</v>
+        <v>0.68192070000000005</v>
       </c>
       <c r="L40" s="6">
-        <v>10.75</v>
+        <v>55.415689999999998</v>
       </c>
       <c r="M40" s="6">
-        <v>6.7030419999999999</v>
+        <v>55.117370000000001</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C41" s="8">
-        <v>13282.155019236099</v>
+        <v>20773.5740314459</v>
       </c>
       <c r="D41" s="4">
-        <v>44130</v>
+        <v>45240</v>
       </c>
       <c r="E41" s="4">
-        <v>44029</v>
+        <v>44838</v>
       </c>
       <c r="F41" s="8">
-        <v>390</v>
+        <v>134</v>
       </c>
       <c r="G41" s="4">
-        <v>43929</v>
+        <v>43952</v>
       </c>
       <c r="H41" s="2">
-        <v>1938.749</v>
+        <v>207.86320000000001</v>
       </c>
       <c r="I41" s="2">
-        <v>1812.6020000000001</v>
+        <v>214.88630000000001</v>
       </c>
       <c r="J41" s="6">
-        <v>0.80912139999999999</v>
+        <v>0.71786570000000005</v>
       </c>
       <c r="K41" s="6">
-        <v>0.82154119999999997</v>
+        <v>0.7083332</v>
       </c>
       <c r="L41" s="6">
-        <v>18.95327</v>
+        <v>162.9659</v>
       </c>
       <c r="M41" s="6">
-        <v>104.4662</v>
+        <v>219.47120000000001</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="8">
-        <v>22192.784118653399</v>
+        <v>19187.906686254199</v>
       </c>
       <c r="D42" s="4">
-        <v>44366</v>
+        <v>44598</v>
       </c>
       <c r="E42" s="4">
-        <v>43950</v>
+        <v>44332</v>
       </c>
       <c r="F42" s="8">
-        <v>371</v>
+        <v>199</v>
       </c>
       <c r="G42" s="4">
-        <v>43939</v>
+        <v>43951</v>
       </c>
       <c r="H42" s="2">
-        <v>1788.922</v>
+        <v>358.82760000000002</v>
       </c>
       <c r="I42" s="2">
-        <v>1848.3230000000001</v>
+        <v>395.714</v>
       </c>
       <c r="J42" s="6">
-        <v>0.81231580000000003</v>
+        <v>0.86232759999999997</v>
       </c>
       <c r="K42" s="6">
-        <v>0.80608380000000002</v>
+        <v>0.84817529999999997</v>
       </c>
       <c r="L42" s="6">
-        <v>304.9633</v>
+        <v>61.425440000000002</v>
       </c>
       <c r="M42" s="6">
-        <v>420.07600000000002</v>
+        <v>147.60720000000001</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C43" s="8">
-        <v>19187.906686254199</v>
+        <v>18167.0512613797</v>
       </c>
       <c r="D43" s="4">
-        <v>44598</v>
+        <v>44046</v>
       </c>
       <c r="E43" s="4">
-        <v>44332</v>
+        <v>43977</v>
       </c>
       <c r="F43" s="8">
-        <v>199</v>
+        <v>1176</v>
       </c>
       <c r="G43" s="4">
-        <v>43951</v>
+        <v>43925</v>
       </c>
       <c r="H43" s="2">
-        <v>358.82760000000002</v>
+        <v>8807.3729999999996</v>
       </c>
       <c r="I43" s="2">
-        <v>395.714</v>
+        <v>10267.98</v>
       </c>
       <c r="J43" s="6">
-        <v>0.86232759999999997</v>
+        <v>0.8016778</v>
       </c>
       <c r="K43" s="6">
-        <v>0.84817529999999997</v>
+        <v>0.76878820000000003</v>
       </c>
       <c r="L43" s="6">
-        <v>61.425440000000002</v>
+        <v>37.914990000000003</v>
       </c>
       <c r="M43" s="6">
-        <v>147.60720000000001</v>
+        <v>137.8673</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C44" s="8">
-        <v>38.000000000150798</v>
+        <v>18033.506353580698</v>
       </c>
       <c r="D44" s="4">
-        <v>43955</v>
+        <v>47595</v>
       </c>
       <c r="E44" s="4">
-        <v>43928</v>
+        <v>47102</v>
       </c>
       <c r="F44" s="8">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G44" s="4">
-        <v>43926</v>
+        <v>43951</v>
       </c>
       <c r="H44" s="2">
-        <v>3.8536589999999999</v>
+        <v>95.884600000000006</v>
       </c>
       <c r="I44" s="2">
-        <v>2.1201210000000001</v>
+        <v>93.420649999999995</v>
       </c>
       <c r="J44" s="6">
-        <v>-0.28684939999999998</v>
+        <v>0.40495370000000003</v>
       </c>
       <c r="K44" s="6">
-        <v>0.2920297</v>
+        <v>0.42024470000000003</v>
       </c>
       <c r="L44" s="6">
-        <v>20.93206</v>
+        <v>87.671469999999999</v>
       </c>
       <c r="M44" s="6">
-        <v>46.27852</v>
+        <v>99.092230000000001</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C45" s="8">
-        <v>0</v>
+        <v>17613.8018072382</v>
       </c>
       <c r="D45" s="4">
-        <v>43955</v>
+        <v>44039</v>
       </c>
       <c r="E45" s="4">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="F45" s="8">
-        <v>6</v>
+        <v>1401</v>
       </c>
       <c r="G45" s="4">
-        <v>43947</v>
+        <v>43933</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>11189.67</v>
       </c>
       <c r="I45" s="2">
-        <v>4.1171099999999998E-122</v>
+        <v>10800.52</v>
       </c>
       <c r="J45" s="6">
-        <v>1</v>
+        <v>0.73784229999999995</v>
       </c>
       <c r="K45" s="6">
-        <v>0</v>
+        <v>0.74695940000000005</v>
       </c>
       <c r="L45" s="6">
-        <v>0</v>
+        <v>162.6968</v>
       </c>
       <c r="M45" s="6">
-        <v>2.0288320000000002E-59</v>
+        <v>202.0027</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C46" s="8">
-        <v>236736.95442717799</v>
+        <v>16972.266061215902</v>
       </c>
       <c r="D46" s="4">
-        <v>44104</v>
+        <v>44705</v>
       </c>
       <c r="E46" s="4">
-        <v>43941</v>
+        <v>44410</v>
       </c>
       <c r="F46" s="8">
-        <v>9222</v>
+        <v>281</v>
       </c>
       <c r="G46" s="4">
-        <v>43922</v>
+        <v>43939</v>
       </c>
       <c r="H46" s="2">
-        <v>466988.1</v>
+        <v>1603.777</v>
       </c>
       <c r="I46" s="2">
-        <v>658888.19999999995</v>
+        <v>1402.5050000000001</v>
       </c>
       <c r="J46" s="6">
-        <v>0.93150900000000003</v>
+        <v>0.69218250000000003</v>
       </c>
       <c r="K46" s="6">
-        <v>0.90336380000000005</v>
+        <v>0.73081309999999999</v>
       </c>
       <c r="L46" s="6">
-        <v>3682.0439999999999</v>
+        <v>188.07409999999999</v>
       </c>
       <c r="M46" s="6">
-        <v>2917.9009999999998</v>
+        <v>171.78380000000001</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C47" s="8">
-        <v>1969.7569216738</v>
+        <v>16425.974195697901</v>
       </c>
       <c r="D47" s="4">
-        <v>44014</v>
+        <v>44220</v>
       </c>
       <c r="E47" s="4">
-        <v>43984</v>
+        <v>44070</v>
       </c>
       <c r="F47" s="8">
-        <v>134</v>
+        <v>445</v>
       </c>
       <c r="G47" s="4">
-        <v>43917</v>
+        <v>43938</v>
       </c>
       <c r="H47" s="2">
-        <v>207.00129999999999</v>
+        <v>2487.9229999999998</v>
       </c>
       <c r="I47" s="2">
-        <v>201.49979999999999</v>
+        <v>2356.6619999999998</v>
       </c>
       <c r="J47" s="6">
-        <v>0.60413399999999995</v>
+        <v>0.86730499999999999</v>
       </c>
       <c r="K47" s="6">
-        <v>0.61465499999999995</v>
+        <v>0.87430589999999997</v>
       </c>
       <c r="L47" s="6">
-        <v>44.412309999999998</v>
+        <v>210.2841</v>
       </c>
       <c r="M47" s="6">
-        <v>74.117959999999997</v>
+        <v>229.0976</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C48" s="8">
-        <v>155.13825625192601</v>
+        <v>15780.9642068745</v>
       </c>
       <c r="D48" s="4">
-        <v>43971</v>
+        <v>43991</v>
       </c>
       <c r="E48" s="4">
-        <v>43946</v>
+        <v>43951</v>
       </c>
       <c r="F48" s="8">
-        <v>9</v>
+        <v>1141</v>
       </c>
       <c r="G48" s="4">
-        <v>43932</v>
+        <v>43917</v>
       </c>
       <c r="H48" s="2">
-        <v>4.6678889999999997</v>
+        <v>4071.4749999999999</v>
       </c>
       <c r="I48" s="2">
-        <v>4.3810560000000001</v>
+        <v>5328.7250000000004</v>
       </c>
       <c r="J48" s="6">
-        <v>0.25836409999999999</v>
+        <v>0.91530330000000004</v>
       </c>
       <c r="K48" s="6">
-        <v>0.30393619999999999</v>
+        <v>0.88914939999999998</v>
       </c>
       <c r="L48" s="6">
-        <v>57.428469999999997</v>
+        <v>23.075050000000001</v>
       </c>
       <c r="M48" s="6">
-        <v>65.761719999999997</v>
+        <v>34.07544</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C49" s="8">
-        <v>9158.4297936527691</v>
+        <v>14618.0462051386</v>
       </c>
       <c r="D49" s="4">
-        <v>44186</v>
+        <v>46154</v>
       </c>
       <c r="E49" s="4">
-        <v>44079</v>
+        <v>45771</v>
       </c>
       <c r="F49" s="8">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="G49" s="4">
-        <v>43926</v>
+        <v>43946</v>
       </c>
       <c r="H49" s="2">
-        <v>909.25109999999995</v>
+        <v>217.94829999999999</v>
       </c>
       <c r="I49" s="2">
-        <v>910.70579999999995</v>
+        <v>217.74420000000001</v>
       </c>
       <c r="J49" s="6">
-        <v>0.74245349999999999</v>
+        <v>0.52050280000000004</v>
       </c>
       <c r="K49" s="6">
-        <v>0.74204139999999996</v>
+        <v>0.52095199999999997</v>
       </c>
       <c r="L49" s="6">
-        <v>125.4335</v>
+        <v>188.03989999999999</v>
       </c>
       <c r="M49" s="6">
-        <v>188.73699999999999</v>
+        <v>219.57259999999999</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C50" s="8">
-        <v>17</v>
+        <v>14370.5886027708</v>
       </c>
       <c r="D50" s="4">
-        <v>43955</v>
+        <v>44159</v>
       </c>
       <c r="E50" s="4">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="F50" s="8">
-        <v>5</v>
+        <v>666</v>
       </c>
       <c r="G50" s="4">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="H50" s="2">
-        <v>0.95348840000000001</v>
+        <v>5084.049</v>
       </c>
       <c r="I50" s="2">
-        <v>0.37209300000000001</v>
+        <v>5494.39</v>
       </c>
       <c r="J50" s="6">
-        <v>-0.19606509999999999</v>
+        <v>0.64719769999999999</v>
       </c>
       <c r="K50" s="6">
-        <v>0.53324289999999996</v>
+        <v>0.61872260000000001</v>
       </c>
       <c r="L50" s="6">
-        <v>14.341089999999999</v>
+        <v>543.56539999999995</v>
       </c>
       <c r="M50" s="6">
-        <v>12.40352</v>
+        <v>698.02210000000002</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C51" s="8">
-        <v>12.000000180431</v>
+        <v>13282.155019236099</v>
       </c>
       <c r="D51" s="4">
-        <v>43955</v>
+        <v>44130</v>
       </c>
       <c r="E51" s="4">
-        <v>43938</v>
+        <v>44029</v>
       </c>
       <c r="F51" s="8">
-        <v>620.91837038527922</v>
+        <v>390</v>
       </c>
       <c r="G51" s="4">
-        <v>43981</v>
+        <v>43929</v>
       </c>
       <c r="H51" s="2">
-        <v>1.714286</v>
+        <v>1938.749</v>
       </c>
       <c r="I51" s="2">
-        <v>1.4525969999999999</v>
+        <v>1812.6020000000001</v>
       </c>
       <c r="J51" s="6">
-        <v>-0.12</v>
+        <v>0.80912139999999999</v>
       </c>
       <c r="K51" s="6">
-        <v>5.0970080000000001E-2</v>
+        <v>0.82154119999999997</v>
       </c>
       <c r="L51" s="6">
-        <v>11.09694</v>
+        <v>18.95327</v>
       </c>
       <c r="M51" s="6">
-        <v>42.740110000000001</v>
+        <v>104.4662</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C52" s="8">
-        <v>147794.67815436301</v>
+        <v>12988.893187973201</v>
       </c>
       <c r="D52" s="4">
-        <v>44115</v>
+        <v>47175</v>
       </c>
       <c r="E52" s="4">
-        <v>43980</v>
+        <v>43944</v>
       </c>
       <c r="F52" s="8">
-        <v>7578</v>
+        <v>109</v>
       </c>
       <c r="G52" s="4">
-        <v>43922</v>
+        <v>43934</v>
       </c>
       <c r="H52" s="2">
-        <v>392585.3</v>
+        <v>710.91110000000003</v>
       </c>
       <c r="I52" s="2">
-        <v>414258.6</v>
+        <v>727.48209999999995</v>
       </c>
       <c r="J52" s="6">
-        <v>0.84205099999999999</v>
+        <v>4.9909670000000003E-2</v>
       </c>
       <c r="K52" s="6">
-        <v>0.83333120000000005</v>
+        <v>2.776352E-2</v>
       </c>
       <c r="L52" s="6">
-        <v>32.358849999999997</v>
+        <v>389.40069999999997</v>
       </c>
       <c r="M52" s="6">
-        <v>134.36080000000001</v>
+        <v>397.69</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C53" s="8">
-        <v>331124.21135469701</v>
+        <v>12817.8020794448</v>
       </c>
       <c r="D53" s="4">
-        <v>44408</v>
+        <v>44598</v>
       </c>
       <c r="E53" s="4">
-        <v>44061</v>
+        <v>44359</v>
       </c>
       <c r="F53" s="8">
-        <v>8719</v>
+        <v>222</v>
       </c>
       <c r="G53" s="4">
-        <v>43933</v>
+        <v>43936</v>
       </c>
       <c r="H53" s="2">
-        <v>254101.4</v>
+        <v>878.18240000000003</v>
       </c>
       <c r="I53" s="2">
-        <v>319485.8</v>
+        <v>956.74680000000001</v>
       </c>
       <c r="J53" s="6">
-        <v>0.94534510000000005</v>
+        <v>0.751633</v>
       </c>
       <c r="K53" s="6">
-        <v>0.93128149999999998</v>
+        <v>0.72941350000000005</v>
       </c>
       <c r="L53" s="6">
-        <v>20.143969999999999</v>
+        <v>36.51097</v>
       </c>
       <c r="M53" s="6">
-        <v>211.71680000000001</v>
+        <v>68.688090000000003</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C54" s="8">
-        <v>3628.92963627582</v>
+        <v>11077.142325049799</v>
       </c>
       <c r="D54" s="4">
-        <v>44398</v>
+        <v>44761</v>
       </c>
       <c r="E54" s="4">
-        <v>44313</v>
+        <v>44522</v>
       </c>
       <c r="F54" s="8">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="G54" s="4">
-        <v>43953</v>
+        <v>43931</v>
       </c>
       <c r="H54" s="2">
-        <v>25.429870000000001</v>
+        <v>585.40689999999995</v>
       </c>
       <c r="I54" s="2">
-        <v>25.67822</v>
+        <v>565.85019999999997</v>
       </c>
       <c r="J54" s="6">
-        <v>0.61678290000000002</v>
+        <v>0.63951619999999998</v>
       </c>
       <c r="K54" s="6">
-        <v>0.61304040000000004</v>
+        <v>0.65155890000000005</v>
       </c>
       <c r="L54" s="6">
-        <v>32.685679999999998</v>
+        <v>49.553649999999998</v>
       </c>
       <c r="M54" s="6">
-        <v>42.512979999999999</v>
+        <v>70.99633</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C55" s="8">
-        <v>251.08276343937899</v>
+        <v>10780.199573768199</v>
       </c>
       <c r="D55" s="4">
         <v>43955</v>
       </c>
       <c r="E55" s="4">
-        <v>43938</v>
+        <v>43923</v>
       </c>
       <c r="F55" s="8">
-        <v>23</v>
+        <v>909</v>
       </c>
       <c r="G55" s="4">
-        <v>43925</v>
+        <v>43890</v>
       </c>
       <c r="H55" s="2">
-        <v>20.931069999999998</v>
+        <v>3347.4380000000001</v>
       </c>
       <c r="I55" s="2">
-        <v>20.570620000000002</v>
+        <v>3879.8710000000001</v>
       </c>
       <c r="J55" s="6">
-        <v>0.51917579999999997</v>
+        <v>0.8710502</v>
       </c>
       <c r="K55" s="6">
-        <v>0.52745589999999998</v>
+        <v>0.85053990000000002</v>
       </c>
       <c r="L55" s="6">
-        <v>64.951170000000005</v>
+        <v>55.808329999999998</v>
       </c>
       <c r="M55" s="6">
-        <v>85.508039999999994</v>
+        <v>68.843069999999997</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C56" s="8">
-        <v>134</v>
+        <v>9158.4297936527691</v>
       </c>
       <c r="D56" s="4">
-        <v>43955</v>
+        <v>44186</v>
       </c>
       <c r="E56" s="4">
-        <v>43923</v>
+        <v>44079</v>
       </c>
       <c r="F56" s="8">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="G56" s="4">
-        <v>43918</v>
+        <v>43926</v>
       </c>
       <c r="H56" s="2">
-        <v>30.604649999999999</v>
+        <v>909.25109999999995</v>
       </c>
       <c r="I56" s="2">
-        <v>15.27656</v>
+        <v>910.70579999999995</v>
       </c>
       <c r="J56" s="6">
-        <v>-0.4113832</v>
+        <v>0.74245349999999999</v>
       </c>
       <c r="K56" s="6">
-        <v>0.2954967</v>
+        <v>0.74204139999999996</v>
       </c>
       <c r="L56" s="6">
-        <v>37.308970000000002</v>
+        <v>125.4335</v>
       </c>
       <c r="M56" s="6">
-        <v>104.8717</v>
+        <v>188.73699999999999</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C57" s="8">
-        <v>11</v>
+        <v>8533.6402805928992</v>
       </c>
       <c r="D57" s="4">
-        <v>43955</v>
+        <v>44035</v>
       </c>
       <c r="E57" s="4">
-        <v>43935</v>
+        <v>43940</v>
       </c>
       <c r="F57" s="8">
-        <v>5</v>
+        <v>425</v>
       </c>
       <c r="G57" s="4">
-        <v>43933</v>
+        <v>43918</v>
       </c>
       <c r="H57" s="2">
-        <v>0.68888890000000003</v>
+        <v>1732.914</v>
       </c>
       <c r="I57" s="2">
-        <v>0.62653789999999998</v>
+        <v>1787.3620000000001</v>
       </c>
       <c r="J57" s="6">
-        <v>-9.4976450000000004E-2</v>
+        <v>0.79506399999999999</v>
       </c>
       <c r="K57" s="6">
-        <v>4.1293830000000004E-3</v>
+        <v>0.78862489999999996</v>
       </c>
       <c r="L57" s="6">
-        <v>8.5185189999999995</v>
+        <v>187.6532</v>
       </c>
       <c r="M57" s="6">
-        <v>27.83062</v>
+        <v>211.88149999999999</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C58" s="8">
-        <v>268.27747943796402</v>
+        <v>8528.2313716944609</v>
       </c>
       <c r="D58" s="4">
-        <v>43957</v>
+        <v>44026</v>
       </c>
       <c r="E58" s="4">
-        <v>43955</v>
+        <v>43973</v>
       </c>
       <c r="F58" s="8">
-        <v>128</v>
+        <v>408</v>
       </c>
       <c r="G58" s="4">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="H58" s="2">
-        <v>21.13889</v>
+        <v>1338.8140000000001</v>
       </c>
       <c r="I58" s="2">
-        <v>21.13889</v>
+        <v>1563.8710000000001</v>
       </c>
       <c r="J58" s="6">
-        <v>0.95785980000000004</v>
+        <v>0.85185029999999995</v>
       </c>
       <c r="K58" s="6">
-        <v>0.95785980000000004</v>
+        <v>0.82694610000000002</v>
       </c>
       <c r="L58" s="6">
-        <v>29.826519999999999</v>
+        <v>20.1129</v>
       </c>
       <c r="M58" s="6">
-        <v>29.8308</v>
+        <v>59.313029999999998</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C59" s="8">
-        <v>2944.1390962751102</v>
+        <v>7080.0401925920996</v>
       </c>
       <c r="D59" s="4">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="E59" s="4">
-        <v>43949</v>
+        <v>43989</v>
       </c>
       <c r="F59" s="8">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="G59" s="4">
-        <v>43943</v>
+        <v>43917</v>
       </c>
       <c r="H59" s="2">
-        <v>368.97449999999998</v>
+        <v>488.45420000000001</v>
       </c>
       <c r="I59" s="2">
-        <v>366.6696</v>
+        <v>572.76130000000001</v>
       </c>
       <c r="J59" s="6">
-        <v>0.65726680000000004</v>
+        <v>0.88990599999999997</v>
       </c>
       <c r="K59" s="6">
-        <v>0.65940779999999999</v>
+        <v>0.87090380000000001</v>
       </c>
       <c r="L59" s="6">
-        <v>137.86539999999999</v>
+        <v>30.304819999999999</v>
       </c>
       <c r="M59" s="6">
-        <v>127.28270000000001</v>
+        <v>112.1979</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C60" s="8">
-        <v>9.0000000000080096</v>
+        <v>6796.8718183635501</v>
       </c>
       <c r="D60" s="4">
-        <v>43955</v>
+        <v>43968</v>
       </c>
       <c r="E60" s="4">
-        <v>43921</v>
+        <v>43942</v>
       </c>
       <c r="F60" s="8">
-        <v>3</v>
+        <v>611</v>
       </c>
       <c r="G60" s="4">
-        <v>43918</v>
+        <v>43913</v>
       </c>
       <c r="H60" s="2">
-        <v>0.3953488</v>
+        <v>2543.2440000000001</v>
       </c>
       <c r="I60" s="2">
-        <v>0.13743250000000001</v>
+        <v>2776.672</v>
       </c>
       <c r="J60" s="6">
-        <v>-0.1246154</v>
+        <v>0.81153529999999996</v>
       </c>
       <c r="K60" s="6">
-        <v>0.60905730000000002</v>
+        <v>0.79423730000000003</v>
       </c>
       <c r="L60" s="6">
-        <v>7.9457360000000001</v>
+        <v>31.848790000000001</v>
       </c>
       <c r="M60" s="6">
-        <v>4.1910109999999996</v>
+        <v>36.772359999999999</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C61" s="8">
-        <v>21386.984030378</v>
+        <v>5887.9201109269197</v>
       </c>
       <c r="D61" s="4">
-        <v>46832</v>
+        <v>45451</v>
       </c>
       <c r="E61" s="4">
-        <v>46287</v>
+        <v>45286</v>
       </c>
       <c r="F61" s="8">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G61" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="H61" s="2">
-        <v>60.76267</v>
+        <v>46.751890000000003</v>
       </c>
       <c r="I61" s="2">
-        <v>59.013509999999997</v>
+        <v>45.807859999999998</v>
       </c>
       <c r="J61" s="6">
-        <v>0.67249289999999995</v>
+        <v>0.29110770000000002</v>
       </c>
       <c r="K61" s="6">
-        <v>0.68192070000000005</v>
+        <v>0.30542180000000002</v>
       </c>
       <c r="L61" s="6">
-        <v>55.415689999999998</v>
+        <v>62.919829999999997</v>
       </c>
       <c r="M61" s="6">
-        <v>55.117370000000001</v>
+        <v>62.356479999999998</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C62" s="8">
-        <v>143.452673486744</v>
+        <v>5541.8665225368304</v>
       </c>
       <c r="D62" s="4">
-        <v>43955</v>
+        <v>44533</v>
       </c>
       <c r="E62" s="4">
-        <v>43935</v>
+        <v>44400</v>
       </c>
       <c r="F62" s="8">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="G62" s="4">
-        <v>43927</v>
+        <v>43952</v>
       </c>
       <c r="H62" s="2">
-        <v>13.26122</v>
+        <v>371.18369999999999</v>
       </c>
       <c r="I62" s="2">
-        <v>9.5183429999999998</v>
+        <v>421.84949999999998</v>
       </c>
       <c r="J62" s="6">
-        <v>9.9893750000000003E-2</v>
+        <v>0.44502779999999997</v>
       </c>
       <c r="K62" s="6">
-        <v>0.35394199999999998</v>
+        <v>0.36927510000000002</v>
       </c>
       <c r="L62" s="6">
-        <v>56.84545</v>
+        <v>223.71199999999999</v>
       </c>
       <c r="M62" s="6">
-        <v>62.976050000000001</v>
+        <v>351.81509999999997</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C63" s="8">
-        <v>81.803710106813298</v>
+        <v>4870.7032125862197</v>
       </c>
       <c r="D63" s="4">
-        <v>43955</v>
+        <v>44078</v>
       </c>
       <c r="E63" s="4">
-        <v>43925</v>
+        <v>43944</v>
       </c>
       <c r="F63" s="8">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="G63" s="4">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="H63" s="2">
-        <v>3.0792359999999999</v>
+        <v>601.31870000000004</v>
       </c>
       <c r="I63" s="2">
-        <v>3.1937039999999999</v>
+        <v>598.29849999999999</v>
       </c>
       <c r="J63" s="6">
-        <v>0.2215501</v>
+        <v>0.65705150000000001</v>
       </c>
       <c r="K63" s="6">
-        <v>0.19261210000000001</v>
+        <v>0.65877399999999997</v>
       </c>
       <c r="L63" s="6">
-        <v>58.44032</v>
+        <v>229.07429999999999</v>
       </c>
       <c r="M63" s="6">
-        <v>73.643119999999996</v>
+        <v>232.18719999999999</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C64" s="8">
-        <v>-1.20463478463119E-168</v>
+        <v>4112.7474642618899</v>
       </c>
       <c r="D64" s="4">
-        <v>43949</v>
+        <v>44155</v>
       </c>
       <c r="E64" s="4">
-        <v>43863</v>
+        <v>43941</v>
       </c>
       <c r="F64" s="8">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="G64" s="4">
-        <v>43861</v>
+        <v>43930</v>
       </c>
       <c r="H64" s="2">
-        <v>0</v>
+        <v>498.93529999999998</v>
       </c>
       <c r="I64" s="2">
-        <v>1.312563E-34</v>
+        <v>520.55489999999998</v>
       </c>
       <c r="J64" s="6">
-        <v>1</v>
+        <v>0.47107850000000001</v>
       </c>
       <c r="K64" s="6">
-        <v>0</v>
+        <v>0.44815959999999999</v>
       </c>
       <c r="L64" s="6">
-        <v>1.0944560000000001E-166</v>
+        <v>299.88720000000001</v>
       </c>
       <c r="M64" s="6">
-        <v>7.3125650000000001E-16</v>
+        <v>354.05130000000003</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C65" s="8">
-        <v>2274.8524932605401</v>
+        <v>3887.1270011801398</v>
       </c>
       <c r="D65" s="4">
-        <v>43997</v>
+        <v>43980</v>
       </c>
       <c r="E65" s="4">
-        <v>43969</v>
+        <v>43953</v>
       </c>
       <c r="F65" s="8">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="G65" s="4">
-        <v>43923</v>
+        <v>43916</v>
       </c>
       <c r="H65" s="2">
-        <v>84.369839999999996</v>
+        <v>514.59630000000004</v>
       </c>
       <c r="I65" s="2">
-        <v>103.9813</v>
+        <v>663.75530000000003</v>
       </c>
       <c r="J65" s="6">
-        <v>0.87785690000000005</v>
+        <v>0.83355679999999999</v>
       </c>
       <c r="K65" s="6">
-        <v>0.84946509999999997</v>
+        <v>0.78531220000000002</v>
       </c>
       <c r="L65" s="6">
-        <v>20.63597</v>
+        <v>49.418019999999999</v>
       </c>
       <c r="M65" s="6">
-        <v>45.141379999999998</v>
+        <v>127.8051</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C66" s="8">
-        <v>82565.9151028622</v>
+        <v>3743.3184387573201</v>
       </c>
       <c r="D66" s="4">
-        <v>89638</v>
+        <v>44255</v>
       </c>
       <c r="E66" s="4">
-        <v>43947</v>
+        <v>44172</v>
       </c>
       <c r="F66" s="8">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G66" s="4">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="H66" s="2">
-        <v>6.1363060000000003</v>
+        <v>71.325519999999997</v>
       </c>
       <c r="I66" s="2">
-        <v>6.085623</v>
+        <v>54.667119999999997</v>
       </c>
       <c r="J66" s="6">
-        <v>6.6938319999999996E-2</v>
+        <v>0.82939430000000003</v>
       </c>
       <c r="K66" s="6">
-        <v>7.4645059999999999E-2</v>
+        <v>0.86924000000000001</v>
       </c>
       <c r="L66" s="6">
-        <v>90.95299</v>
+        <v>28.484480000000001</v>
       </c>
       <c r="M66" s="6">
-        <v>96.248019999999997</v>
+        <v>34.679929999999999</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C67" s="8">
-        <v>11077.142325049799</v>
+        <v>3628.92963627582</v>
       </c>
       <c r="D67" s="4">
-        <v>44761</v>
+        <v>44398</v>
       </c>
       <c r="E67" s="4">
-        <v>44522</v>
+        <v>44313</v>
       </c>
       <c r="F67" s="8">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="G67" s="4">
-        <v>43931</v>
+        <v>43953</v>
       </c>
       <c r="H67" s="2">
-        <v>585.40689999999995</v>
+        <v>25.429870000000001</v>
       </c>
       <c r="I67" s="2">
-        <v>565.85019999999997</v>
+        <v>25.67822</v>
       </c>
       <c r="J67" s="6">
-        <v>0.63951619999999998</v>
+        <v>0.61678290000000002</v>
       </c>
       <c r="K67" s="6">
-        <v>0.65155890000000005</v>
+        <v>0.61304040000000004</v>
       </c>
       <c r="L67" s="6">
-        <v>49.553649999999998</v>
+        <v>32.685679999999998</v>
       </c>
       <c r="M67" s="6">
-        <v>70.99633</v>
+        <v>42.512979999999999</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C68" s="8">
-        <v>35581.360478333903</v>
+        <v>3044.4473076035802</v>
       </c>
       <c r="D68" s="4">
-        <v>44458</v>
+        <v>43981</v>
       </c>
       <c r="E68" s="4">
-        <v>44185</v>
+        <v>43923</v>
       </c>
       <c r="F68" s="8">
-        <v>436</v>
+        <v>263</v>
       </c>
       <c r="G68" s="4">
-        <v>43946</v>
+        <v>43921</v>
       </c>
       <c r="H68" s="2">
-        <v>1236.0309999999999</v>
+        <v>850.76670000000001</v>
       </c>
       <c r="I68" s="2">
-        <v>1220.6469999999999</v>
+        <v>901.32050000000004</v>
       </c>
       <c r="J68" s="6">
-        <v>0.92908380000000002</v>
+        <v>0.63187819999999995</v>
       </c>
       <c r="K68" s="6">
-        <v>0.92996639999999997</v>
+        <v>0.61000390000000004</v>
       </c>
       <c r="L68" s="6">
-        <v>51.956319999999998</v>
+        <v>381.04300000000001</v>
       </c>
       <c r="M68" s="6">
-        <v>124.05710000000001</v>
+        <v>399.024</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C69" s="8">
-        <v>315.21072758634699</v>
+        <v>2944.1390962751102</v>
       </c>
       <c r="D69" s="4">
-        <v>43955</v>
+        <v>44019</v>
       </c>
       <c r="E69" s="4">
-        <v>43937</v>
+        <v>43949</v>
       </c>
       <c r="F69" s="8">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="G69" s="4">
-        <v>43925</v>
+        <v>43943</v>
       </c>
       <c r="H69" s="2">
-        <v>146.07390000000001</v>
+        <v>368.97449999999998</v>
       </c>
       <c r="I69" s="2">
-        <v>63.22636</v>
+        <v>366.6696</v>
       </c>
       <c r="J69" s="6">
-        <v>-0.61684150000000004</v>
+        <v>0.65726680000000004</v>
       </c>
       <c r="K69" s="6">
-        <v>0.30016939999999998</v>
+        <v>0.65940779999999999</v>
       </c>
       <c r="L69" s="6">
-        <v>57.426839999999999</v>
+        <v>137.86539999999999</v>
       </c>
       <c r="M69" s="6">
-        <v>147.40379999999999</v>
+        <v>127.28270000000001</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="C70" s="8">
-        <v>409418.33345003502</v>
+        <v>2338.8511859988098</v>
       </c>
       <c r="D70" s="4">
-        <v>45594</v>
+        <v>44199</v>
       </c>
       <c r="E70" s="4">
-        <v>44421</v>
+        <v>43950</v>
       </c>
       <c r="F70" s="8">
-        <v>2607.2637211736601</v>
+        <v>59</v>
       </c>
       <c r="G70" s="4">
-        <v>43980</v>
+        <v>43919</v>
       </c>
       <c r="H70" s="2">
-        <v>8398.7189999999991</v>
+        <v>124.5431</v>
       </c>
       <c r="I70" s="2">
-        <v>9114.0290000000005</v>
+        <v>869.46550000000002</v>
       </c>
       <c r="J70" s="6">
-        <v>0.97326749999999995</v>
+        <v>0.51920330000000003</v>
       </c>
       <c r="K70" s="6">
-        <v>0.97099069999999998</v>
+        <v>-2.3565589999999998</v>
       </c>
       <c r="L70" s="6">
-        <v>22.38137</v>
+        <v>100.7163</v>
       </c>
       <c r="M70" s="6">
-        <v>80.4709</v>
+        <v>89.67389</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C71" s="8">
-        <v>27693.837998513402</v>
+        <v>2274.8524932605401</v>
       </c>
       <c r="D71" s="4">
-        <v>44080</v>
+        <v>43997</v>
       </c>
       <c r="E71" s="4">
-        <v>43994</v>
+        <v>43969</v>
       </c>
       <c r="F71" s="8">
-        <v>1169</v>
+        <v>96</v>
       </c>
       <c r="G71" s="4">
-        <v>43931</v>
+        <v>43923</v>
       </c>
       <c r="H71" s="2">
-        <v>11724.74</v>
+        <v>84.369839999999996</v>
       </c>
       <c r="I71" s="2">
-        <v>9490.973</v>
+        <v>103.9813</v>
       </c>
       <c r="J71" s="6">
-        <v>0.84385619999999995</v>
+        <v>0.87785690000000005</v>
       </c>
       <c r="K71" s="6">
-        <v>0.8736043</v>
+        <v>0.84946509999999997</v>
       </c>
       <c r="L71" s="6">
-        <v>25.913530000000002</v>
+        <v>20.63597</v>
       </c>
       <c r="M71" s="6">
-        <v>21.826090000000001</v>
+        <v>45.141379999999998</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C72" s="8">
-        <v>126048.49376958099</v>
+        <v>2209.9148541930199</v>
       </c>
       <c r="D72" s="4">
-        <v>44267</v>
+        <v>44008</v>
       </c>
       <c r="E72" s="4">
-        <v>44027</v>
+        <v>43980</v>
       </c>
       <c r="F72" s="8">
-        <v>5275</v>
+        <v>105</v>
       </c>
       <c r="G72" s="4">
-        <v>43926</v>
+        <v>43930</v>
       </c>
       <c r="H72" s="2">
-        <v>211144.5</v>
+        <v>80.359589999999997</v>
       </c>
       <c r="I72" s="2">
-        <v>188036.7</v>
+        <v>103.7072</v>
       </c>
       <c r="J72" s="6">
-        <v>0.77963470000000001</v>
+        <v>0.8621645</v>
       </c>
       <c r="K72" s="6">
-        <v>0.80375169999999996</v>
+        <v>0.82211789999999996</v>
       </c>
       <c r="L72" s="6">
-        <v>1847.8</v>
+        <v>19.757670000000001</v>
       </c>
       <c r="M72" s="6">
-        <v>2313.8539999999998</v>
+        <v>47.14913</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C73" s="8">
-        <v>4112.7474642618899</v>
+        <v>2089.9180141830898</v>
       </c>
       <c r="D73" s="4">
-        <v>44155</v>
+        <v>44038</v>
       </c>
       <c r="E73" s="4">
-        <v>43941</v>
+        <v>44005</v>
       </c>
       <c r="F73" s="8">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="G73" s="4">
-        <v>43930</v>
+        <v>43938</v>
       </c>
       <c r="H73" s="2">
-        <v>498.93529999999998</v>
+        <v>138.995</v>
       </c>
       <c r="I73" s="2">
-        <v>520.55489999999998</v>
+        <v>129.98840000000001</v>
       </c>
       <c r="J73" s="6">
-        <v>0.47107850000000001</v>
+        <v>0.67019189999999995</v>
       </c>
       <c r="K73" s="6">
-        <v>0.44815959999999999</v>
+        <v>0.69156289999999998</v>
       </c>
       <c r="L73" s="6">
-        <v>299.88720000000001</v>
+        <v>89.59684</v>
       </c>
       <c r="M73" s="6">
-        <v>354.05130000000003</v>
+        <v>97.627300000000005</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C74" s="8">
-        <v>1841.6216024656301</v>
+        <v>1969.7569216738</v>
       </c>
       <c r="D74" s="4">
-        <v>43974</v>
+        <v>44014</v>
       </c>
       <c r="E74" s="4">
-        <v>43946</v>
+        <v>43984</v>
       </c>
       <c r="F74" s="8">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G74" s="4">
-        <v>43924</v>
+        <v>43917</v>
       </c>
       <c r="H74" s="2">
-        <v>125.7533</v>
+        <v>207.00129999999999</v>
       </c>
       <c r="I74" s="2">
-        <v>105.598</v>
+        <v>201.49979999999999</v>
       </c>
       <c r="J74" s="6">
-        <v>0.81176269999999995</v>
+        <v>0.60413399999999995</v>
       </c>
       <c r="K74" s="6">
-        <v>0.84193280000000004</v>
+        <v>0.61465499999999995</v>
       </c>
       <c r="L74" s="6">
-        <v>66.474320000000006</v>
+        <v>44.412309999999998</v>
       </c>
       <c r="M74" s="6">
-        <v>48.643540000000002</v>
+        <v>74.117959999999997</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="8">
-        <v>18167.0512613797</v>
+        <v>1841.6216024656301</v>
       </c>
       <c r="D75" s="4">
-        <v>44046</v>
+        <v>43974</v>
       </c>
       <c r="E75" s="4">
-        <v>43977</v>
+        <v>43946</v>
       </c>
       <c r="F75" s="8">
-        <v>1176</v>
+        <v>99</v>
       </c>
       <c r="G75" s="4">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="H75" s="2">
-        <v>8807.3729999999996</v>
+        <v>125.7533</v>
       </c>
       <c r="I75" s="2">
-        <v>10267.98</v>
+        <v>105.598</v>
       </c>
       <c r="J75" s="6">
-        <v>0.8016778</v>
+        <v>0.81176269999999995</v>
       </c>
       <c r="K75" s="6">
-        <v>0.76878820000000003</v>
+        <v>0.84193280000000004</v>
       </c>
       <c r="L75" s="6">
-        <v>37.914990000000003</v>
+        <v>66.474320000000006</v>
       </c>
       <c r="M75" s="6">
-        <v>137.8673</v>
+        <v>48.643540000000002</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="C76" s="8">
-        <v>253022.35415103001</v>
+        <v>1720.1310519971501</v>
       </c>
       <c r="D76" s="4">
-        <v>44262</v>
+        <v>44122</v>
       </c>
       <c r="E76" s="4">
-        <v>44009</v>
+        <v>43953</v>
       </c>
       <c r="F76" s="8">
-        <v>6557</v>
+        <v>174</v>
       </c>
       <c r="G76" s="4">
-        <v>43912</v>
+        <v>43951</v>
       </c>
       <c r="H76" s="2">
-        <v>151938.29999999999</v>
+        <v>716.08960000000002</v>
       </c>
       <c r="I76" s="2">
-        <v>354537</v>
+        <v>719.32860000000005</v>
       </c>
       <c r="J76" s="6">
-        <v>0.96193010000000001</v>
+        <v>0.14439360000000001</v>
       </c>
       <c r="K76" s="6">
-        <v>0.9111667</v>
+        <v>0.1405236</v>
       </c>
       <c r="L76" s="6">
-        <v>14.546099999999999</v>
+        <v>511.27609999999999</v>
       </c>
       <c r="M76" s="6">
-        <v>1577.9490000000001</v>
+        <v>539.67150000000004</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C77" s="8">
-        <v>725.35634690416498</v>
+        <v>1690.06526257002</v>
       </c>
       <c r="D77" s="4">
-        <v>44010</v>
+        <v>43999</v>
       </c>
       <c r="E77" s="4">
-        <v>43995</v>
+        <v>43927</v>
       </c>
       <c r="F77" s="8">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="G77" s="4">
-        <v>43948</v>
+        <v>43925</v>
       </c>
       <c r="H77" s="2">
-        <v>49.21754</v>
+        <v>193.1361</v>
       </c>
       <c r="I77" s="2">
-        <v>49.68929</v>
+        <v>208.26679999999999</v>
       </c>
       <c r="J77" s="6">
-        <v>0.5598263</v>
+        <v>0.61089099999999996</v>
       </c>
       <c r="K77" s="6">
-        <v>0.55560730000000003</v>
+        <v>0.58040729999999996</v>
       </c>
       <c r="L77" s="6">
-        <v>104.54089999999999</v>
+        <v>153.0206</v>
       </c>
       <c r="M77" s="6">
-        <v>115.7724</v>
+        <v>189.9676</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="C78" s="8">
-        <v>281</v>
+        <v>1486.3061128341601</v>
       </c>
       <c r="D78" s="4">
-        <v>43955</v>
+        <v>44186</v>
       </c>
       <c r="E78" s="4">
-        <v>43931</v>
+        <v>43916</v>
       </c>
       <c r="F78" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" s="4">
-        <v>43925</v>
+        <v>43914</v>
       </c>
       <c r="H78" s="2">
-        <v>123.5116</v>
+        <v>36.246949999999998</v>
       </c>
       <c r="I78" s="2">
-        <v>70.73912</v>
+        <v>36.649520000000003</v>
       </c>
       <c r="J78" s="6">
-        <v>-0.52847829999999996</v>
+        <v>0.39317410000000003</v>
       </c>
       <c r="K78" s="6">
-        <v>0.1245908</v>
+        <v>0.38643440000000001</v>
       </c>
       <c r="L78" s="6">
-        <v>53.903280000000002</v>
+        <v>116.3083</v>
       </c>
       <c r="M78" s="6">
-        <v>257.29259999999999</v>
+        <v>132.39449999999999</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C79" s="8">
-        <v>484.83995377220498</v>
+        <v>1402</v>
       </c>
       <c r="D79" s="4">
-        <v>43972</v>
+        <v>43955</v>
       </c>
       <c r="E79" s="4">
-        <v>43926</v>
+        <v>43948</v>
       </c>
       <c r="F79" s="8">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="G79" s="4">
-        <v>43918</v>
+        <v>43938</v>
       </c>
       <c r="H79" s="2">
-        <v>35.769159999999999</v>
+        <v>1287.5709999999999</v>
       </c>
       <c r="I79" s="2">
-        <v>38.86983</v>
+        <v>482.36939999999998</v>
       </c>
       <c r="J79" s="6">
-        <v>0.52975879999999997</v>
+        <v>-0.94854989999999995</v>
       </c>
       <c r="K79" s="6">
-        <v>0.48899559999999997</v>
+        <v>0.270005</v>
       </c>
       <c r="L79" s="6">
-        <v>102.67959999999999</v>
+        <v>86.524600000000007</v>
       </c>
       <c r="M79" s="6">
-        <v>135.90430000000001</v>
+        <v>180.9153</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="C80" s="8">
-        <v>17613.8018072382</v>
+        <v>1314.92074803376</v>
       </c>
       <c r="D80" s="4">
-        <v>44039</v>
+        <v>44230</v>
       </c>
       <c r="E80" s="4">
-        <v>43980</v>
+        <v>44194</v>
       </c>
       <c r="F80" s="8">
-        <v>1401</v>
+        <v>36</v>
       </c>
       <c r="G80" s="4">
-        <v>43933</v>
+        <v>43920</v>
       </c>
       <c r="H80" s="2">
-        <v>11189.67</v>
+        <v>54.109690000000001</v>
       </c>
       <c r="I80" s="2">
-        <v>10800.52</v>
+        <v>61.441560000000003</v>
       </c>
       <c r="J80" s="6">
-        <v>0.73784229999999995</v>
+        <v>0.28038649999999998</v>
       </c>
       <c r="K80" s="6">
-        <v>0.74695940000000005</v>
+        <v>0.18287880000000001</v>
       </c>
       <c r="L80" s="6">
-        <v>162.6968</v>
+        <v>81.014520000000005</v>
       </c>
       <c r="M80" s="6">
-        <v>202.0027</v>
+        <v>87.941119999999998</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4257,3326 +4257,3329 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="C82" s="8">
-        <v>766</v>
+        <v>1182.1350605467001</v>
       </c>
       <c r="D82" s="4">
-        <v>43955</v>
+        <v>44012</v>
       </c>
       <c r="E82" s="4">
-        <v>43953</v>
+        <v>43926</v>
       </c>
       <c r="F82" s="8">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G82" s="4">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="H82" s="2">
-        <v>525.63639999999998</v>
+        <v>152.9682</v>
       </c>
       <c r="I82" s="2">
-        <v>164.7037</v>
+        <v>165.95570000000001</v>
       </c>
       <c r="J82" s="6">
-        <v>-1.361775</v>
+        <v>0.49163639999999997</v>
       </c>
       <c r="K82" s="6">
-        <v>0.25995780000000002</v>
+        <v>0.4484745</v>
       </c>
       <c r="L82" s="6">
-        <v>77.686139999999995</v>
+        <v>235.6747</v>
       </c>
       <c r="M82" s="6">
-        <v>217.07480000000001</v>
+        <v>240.18379999999999</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C83" s="8">
-        <v>12.9999999999977</v>
+        <v>1134.7489023442199</v>
       </c>
       <c r="D83" s="4">
         <v>43955</v>
       </c>
       <c r="E83" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="F83" s="8">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="G83" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="H83" s="2">
-        <v>0.94594590000000001</v>
+        <v>48.493290000000002</v>
       </c>
       <c r="I83" s="2">
-        <v>0.74293359999999997</v>
+        <v>58.698929999999997</v>
       </c>
       <c r="J83" s="6">
-        <v>-0.15008879999999999</v>
+        <v>0.87971310000000003</v>
       </c>
       <c r="K83" s="6">
-        <v>9.6735219999999997E-2</v>
+        <v>0.8543982</v>
       </c>
       <c r="L83" s="6">
-        <v>12.16216</v>
+        <v>66.205939999999998</v>
       </c>
       <c r="M83" s="6">
-        <v>30.757280000000002</v>
+        <v>84.529520000000005</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C84" s="8">
-        <v>10780.199573768199</v>
+        <v>1082.0383607768699</v>
       </c>
       <c r="D84" s="4">
-        <v>43955</v>
+        <v>44026</v>
       </c>
       <c r="E84" s="4">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="F84" s="8">
-        <v>909</v>
+        <v>71</v>
       </c>
       <c r="G84" s="4">
-        <v>43890</v>
+        <v>43920</v>
       </c>
       <c r="H84" s="2">
-        <v>3347.4380000000001</v>
+        <v>95.103080000000006</v>
       </c>
       <c r="I84" s="2">
-        <v>3879.8710000000001</v>
+        <v>112.6906</v>
       </c>
       <c r="J84" s="6">
-        <v>0.8710502</v>
+        <v>0.44695849999999998</v>
       </c>
       <c r="K84" s="6">
-        <v>0.85053990000000002</v>
+        <v>0.34468379999999998</v>
       </c>
       <c r="L84" s="6">
-        <v>55.808329999999998</v>
+        <v>90.534480000000002</v>
       </c>
       <c r="M84" s="6">
-        <v>68.843069999999997</v>
+        <v>130.7432</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C85" s="8">
-        <v>17.000000000016001</v>
+        <v>990.67609435402596</v>
       </c>
       <c r="D85" s="4">
-        <v>43955</v>
+        <v>44007</v>
       </c>
       <c r="E85" s="4">
-        <v>43919</v>
+        <v>43945</v>
       </c>
       <c r="F85" s="8">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="G85" s="4">
-        <v>43917</v>
+        <v>43942</v>
       </c>
       <c r="H85" s="2">
-        <v>1.1315789999999999</v>
+        <v>179.4699</v>
       </c>
       <c r="I85" s="2">
-        <v>0.79215089999999999</v>
+        <v>175.5204</v>
       </c>
       <c r="J85" s="6">
-        <v>-0.2148699</v>
+        <v>0.57427530000000004</v>
       </c>
       <c r="K85" s="6">
-        <v>0.14954200000000001</v>
+        <v>0.58364389999999999</v>
       </c>
       <c r="L85" s="6">
-        <v>14.385960000000001</v>
+        <v>323.78089999999997</v>
       </c>
       <c r="M85" s="6">
-        <v>37.982419999999998</v>
+        <v>336.23</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C86" s="8">
-        <v>750.38556342097297</v>
+        <v>960.79222144298296</v>
       </c>
       <c r="D86" s="4">
-        <v>43968</v>
+        <v>43994</v>
       </c>
       <c r="E86" s="4">
-        <v>43926</v>
+        <v>43940</v>
       </c>
       <c r="F86" s="8">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G86" s="4">
-        <v>43912</v>
+        <v>43923</v>
       </c>
       <c r="H86" s="2">
-        <v>40.893729999999998</v>
+        <v>71.984070000000003</v>
       </c>
       <c r="I86" s="2">
-        <v>43.543050000000001</v>
+        <v>60.85454</v>
       </c>
       <c r="J86" s="6">
-        <v>0.60563009999999995</v>
+        <v>0.53979239999999995</v>
       </c>
       <c r="K86" s="6">
-        <v>0.58008059999999995</v>
+        <v>0.61094559999999998</v>
       </c>
       <c r="L86" s="6">
-        <v>69.881439999999998</v>
+        <v>70.956639999999993</v>
       </c>
       <c r="M86" s="6">
-        <v>85.351680000000002</v>
+        <v>102.0766</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C87" s="8">
-        <v>252.575542237061</v>
+        <v>890.09733265611703</v>
       </c>
       <c r="D87" s="4">
-        <v>44001</v>
+        <v>44020</v>
       </c>
       <c r="E87" s="4">
-        <v>43932</v>
+        <v>43947</v>
       </c>
       <c r="F87" s="8">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G87" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="H87" s="2">
-        <v>16.124459999999999</v>
+        <v>32.112070000000003</v>
       </c>
       <c r="I87" s="2">
-        <v>16.596340000000001</v>
+        <v>252.3929</v>
       </c>
       <c r="J87" s="6">
-        <v>0.26658169999999998</v>
+        <v>0.62329630000000003</v>
       </c>
       <c r="K87" s="6">
-        <v>0.245118</v>
+        <v>-1.9607969999999999</v>
       </c>
       <c r="L87" s="6">
-        <v>121.8552</v>
+        <v>58.339860000000002</v>
       </c>
       <c r="M87" s="6">
-        <v>136.80850000000001</v>
+        <v>84.872079999999997</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C88" s="8">
-        <v>959793.62824012805</v>
+        <v>845.464286488472</v>
       </c>
       <c r="D88" s="4">
-        <v>44025</v>
+        <v>44028</v>
       </c>
       <c r="E88" s="4">
-        <v>43940</v>
+        <v>44007</v>
       </c>
       <c r="F88" s="8">
-        <v>104663.6048298861</v>
+        <v>43</v>
       </c>
       <c r="G88" s="4">
-        <v>43960</v>
+        <v>43927</v>
       </c>
       <c r="H88" s="2">
-        <v>11.578950000000001</v>
+        <v>91.627629999999996</v>
       </c>
       <c r="I88" s="2">
-        <v>8.3980870000000003</v>
+        <v>292.25</v>
       </c>
       <c r="J88" s="6">
-        <v>-0.28338970000000002</v>
+        <v>0.33332139999999999</v>
       </c>
       <c r="K88" s="6">
-        <v>6.9171250000000004E-2</v>
+        <v>-1.126398</v>
       </c>
       <c r="L88" s="6">
-        <v>28.215810000000001</v>
+        <v>201.85659999999999</v>
       </c>
       <c r="M88" s="6">
-        <v>97.222920000000002</v>
+        <v>72.98706</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C89" s="8">
-        <v>15</v>
+        <v>830.22731112497604</v>
       </c>
       <c r="D89" s="4">
-        <v>43955</v>
+        <v>43992</v>
       </c>
       <c r="E89" s="4">
-        <v>43922</v>
+        <v>43944</v>
       </c>
       <c r="F89" s="8">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G89" s="4">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="H89" s="2">
-        <v>0.4791665</v>
+        <v>56.18327</v>
       </c>
       <c r="I89" s="2">
-        <v>0.54617190000000004</v>
+        <v>318.75</v>
       </c>
       <c r="J89" s="6">
-        <v>0.48095929999999998</v>
+        <v>0.65861890000000001</v>
       </c>
       <c r="K89" s="6">
-        <v>0.40837800000000002</v>
+        <v>-0.93679060000000003</v>
       </c>
       <c r="L89" s="6">
-        <v>6.1857360000000003</v>
+        <v>113.3023</v>
       </c>
       <c r="M89" s="6">
-        <v>16.364709999999999</v>
+        <v>64.752110000000002</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C90" s="8">
-        <v>82.038567128373103</v>
+        <v>766</v>
       </c>
       <c r="D90" s="4">
         <v>43955</v>
       </c>
       <c r="E90" s="4">
-        <v>43911</v>
+        <v>43953</v>
       </c>
       <c r="F90" s="8">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G90" s="4">
-        <v>43909</v>
+        <v>43927</v>
       </c>
       <c r="H90" s="2">
-        <v>5.8063190000000002</v>
+        <v>525.63639999999998</v>
       </c>
       <c r="I90" s="2">
-        <v>6.3672800000000001</v>
+        <v>164.7037</v>
       </c>
       <c r="J90" s="6">
-        <v>0.35493859999999999</v>
+        <v>-1.361775</v>
       </c>
       <c r="K90" s="6">
-        <v>0.29261789999999999</v>
+        <v>0.25995780000000002</v>
       </c>
       <c r="L90" s="6">
-        <v>61.225160000000002</v>
+        <v>77.686139999999995</v>
       </c>
       <c r="M90" s="6">
-        <v>61.650329999999997</v>
+        <v>217.07480000000001</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C91" s="8">
-        <v>741.77921334886105</v>
+        <v>757.07881528633095</v>
       </c>
       <c r="D91" s="4">
-        <v>43964</v>
+        <v>44074</v>
       </c>
       <c r="E91" s="4">
-        <v>43957</v>
+        <v>43949</v>
       </c>
       <c r="F91" s="8">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G91" s="4">
-        <v>43949</v>
+        <v>43929</v>
       </c>
       <c r="H91" s="2">
-        <v>40.656959999999998</v>
+        <v>68.019900000000007</v>
       </c>
       <c r="I91" s="2">
-        <v>52.509770000000003</v>
+        <v>59.544280000000001</v>
       </c>
       <c r="J91" s="6">
-        <v>0.71386799999999995</v>
+        <v>0.17003389999999999</v>
       </c>
       <c r="K91" s="6">
-        <v>0.63045130000000005</v>
+        <v>0.27345180000000002</v>
       </c>
       <c r="L91" s="6">
-        <v>26.852789999999999</v>
+        <v>99.489400000000003</v>
       </c>
       <c r="M91" s="6">
-        <v>59.3065</v>
+        <v>78.411810000000003</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C92" s="8">
-        <v>1690.06526257002</v>
+        <v>750.38556342097297</v>
       </c>
       <c r="D92" s="4">
-        <v>43999</v>
+        <v>43968</v>
       </c>
       <c r="E92" s="4">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="F92" s="8">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="G92" s="4">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="H92" s="2">
-        <v>193.1361</v>
+        <v>40.893729999999998</v>
       </c>
       <c r="I92" s="2">
-        <v>208.26679999999999</v>
+        <v>43.543050000000001</v>
       </c>
       <c r="J92" s="6">
-        <v>0.61089099999999996</v>
+        <v>0.60563009999999995</v>
       </c>
       <c r="K92" s="6">
-        <v>0.58040729999999996</v>
+        <v>0.58008059999999995</v>
       </c>
       <c r="L92" s="6">
-        <v>153.0206</v>
+        <v>69.881439999999998</v>
       </c>
       <c r="M92" s="6">
-        <v>189.9676</v>
+        <v>85.351680000000002</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C93" s="8">
-        <v>3887.1270011801398</v>
+        <v>741.77921334886105</v>
       </c>
       <c r="D93" s="4">
-        <v>43980</v>
+        <v>43964</v>
       </c>
       <c r="E93" s="4">
-        <v>43953</v>
+        <v>43957</v>
       </c>
       <c r="F93" s="8">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="G93" s="4">
-        <v>43916</v>
+        <v>43949</v>
       </c>
       <c r="H93" s="2">
-        <v>514.59630000000004</v>
+        <v>40.656959999999998</v>
       </c>
       <c r="I93" s="2">
-        <v>663.75530000000003</v>
+        <v>52.509770000000003</v>
       </c>
       <c r="J93" s="6">
-        <v>0.83355679999999999</v>
+        <v>0.71386799999999995</v>
       </c>
       <c r="K93" s="6">
-        <v>0.78531220000000002</v>
+        <v>0.63045130000000005</v>
       </c>
       <c r="L93" s="6">
-        <v>49.418019999999999</v>
+        <v>26.852789999999999</v>
       </c>
       <c r="M93" s="6">
-        <v>127.8051</v>
+        <v>59.3065</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C94" s="8">
-        <v>1082.0383607768699</v>
+        <v>727</v>
       </c>
       <c r="D94" s="4">
-        <v>44026</v>
+        <v>43955</v>
       </c>
       <c r="E94" s="4">
-        <v>43922</v>
+        <v>43944</v>
       </c>
       <c r="F94" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G94" s="4">
-        <v>43920</v>
+        <v>43928</v>
       </c>
       <c r="H94" s="2">
-        <v>95.103080000000006</v>
+        <v>719.5</v>
       </c>
       <c r="I94" s="2">
-        <v>112.6906</v>
+        <v>140.34280000000001</v>
       </c>
       <c r="J94" s="6">
-        <v>0.44695849999999998</v>
+        <v>-0.71358330000000003</v>
       </c>
       <c r="K94" s="6">
-        <v>0.34468379999999998</v>
+        <v>0.66575519999999999</v>
       </c>
       <c r="L94" s="6">
-        <v>90.534480000000002</v>
+        <v>70.946389999999994</v>
       </c>
       <c r="M94" s="6">
-        <v>130.7432</v>
+        <v>165.88210000000001</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C95" s="8">
-        <v>16972.266061215902</v>
+        <v>725.35634690416498</v>
       </c>
       <c r="D95" s="4">
-        <v>44705</v>
+        <v>44010</v>
       </c>
       <c r="E95" s="4">
-        <v>44410</v>
+        <v>43995</v>
       </c>
       <c r="F95" s="8">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="G95" s="4">
-        <v>43939</v>
+        <v>43948</v>
       </c>
       <c r="H95" s="2">
-        <v>1603.777</v>
+        <v>49.21754</v>
       </c>
       <c r="I95" s="2">
-        <v>1402.5050000000001</v>
+        <v>49.68929</v>
       </c>
       <c r="J95" s="6">
-        <v>0.69218250000000003</v>
+        <v>0.5598263</v>
       </c>
       <c r="K95" s="6">
-        <v>0.73081309999999999</v>
+        <v>0.55560730000000003</v>
       </c>
       <c r="L95" s="6">
-        <v>188.07409999999999</v>
+        <v>104.54089999999999</v>
       </c>
       <c r="M95" s="6">
-        <v>171.78380000000001</v>
+        <v>115.7724</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C96" s="8">
-        <v>95.191264358595305</v>
+        <v>705.15389170144203</v>
       </c>
       <c r="D96" s="4">
-        <v>43955</v>
+        <v>43901</v>
       </c>
       <c r="E96" s="4">
-        <v>43935</v>
+        <v>43879</v>
       </c>
       <c r="F96" s="8">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="G96" s="4">
-        <v>43918</v>
+        <v>43877</v>
       </c>
       <c r="H96" s="2">
-        <v>1.1919850000000001</v>
+        <v>388.51400000000001</v>
       </c>
       <c r="I96" s="2">
-        <v>1.0632809999999999</v>
+        <v>362.56439999999998</v>
       </c>
       <c r="J96" s="6">
-        <v>0.57083430000000002</v>
+        <v>0.4419034</v>
       </c>
       <c r="K96" s="6">
-        <v>0.61717330000000004</v>
+        <v>0.47917979999999999</v>
       </c>
       <c r="L96" s="6">
-        <v>21.628039999999999</v>
+        <v>323.41370000000001</v>
       </c>
       <c r="M96" s="6">
-        <v>22.288599999999999</v>
+        <v>348.88639999999998</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C97" s="8">
-        <v>12817.8020794448</v>
+        <v>484.83995377220498</v>
       </c>
       <c r="D97" s="4">
-        <v>44598</v>
+        <v>43972</v>
       </c>
       <c r="E97" s="4">
-        <v>44359</v>
+        <v>43926</v>
       </c>
       <c r="F97" s="8">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="G97" s="4">
-        <v>43936</v>
+        <v>43918</v>
       </c>
       <c r="H97" s="2">
-        <v>878.18240000000003</v>
+        <v>35.769159999999999</v>
       </c>
       <c r="I97" s="2">
-        <v>956.74680000000001</v>
+        <v>38.86983</v>
       </c>
       <c r="J97" s="6">
-        <v>0.751633</v>
+        <v>0.52975879999999997</v>
       </c>
       <c r="K97" s="6">
-        <v>0.72941350000000005</v>
+        <v>0.48899559999999997</v>
       </c>
       <c r="L97" s="6">
-        <v>36.51097</v>
+        <v>102.67959999999999</v>
       </c>
       <c r="M97" s="6">
-        <v>68.688090000000003</v>
+        <v>135.90430000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C98" s="8">
-        <v>132.704706178386</v>
+        <v>429.28026176876801</v>
       </c>
       <c r="D98" s="4">
         <v>43955</v>
       </c>
       <c r="E98" s="4">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="F98" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G98" s="4">
-        <v>43914</v>
+        <v>43909</v>
       </c>
       <c r="H98" s="2">
-        <v>9.9744849999999996</v>
+        <v>15.984069999999999</v>
       </c>
       <c r="I98" s="2">
-        <v>9.0037900000000004</v>
+        <v>17.174769999999999</v>
       </c>
       <c r="J98" s="6">
-        <v>0.1108252</v>
+        <v>0.64593279999999997</v>
       </c>
       <c r="K98" s="6">
-        <v>0.1973577</v>
+        <v>0.61955720000000003</v>
       </c>
       <c r="L98" s="6">
-        <v>79.424229999999994</v>
+        <v>74.386790000000005</v>
       </c>
       <c r="M98" s="6">
-        <v>98.018230000000003</v>
+        <v>71.997879999999995</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C99" s="8">
-        <v>1604198.2606462</v>
+        <v>369.19252059712602</v>
       </c>
       <c r="D99" s="4">
-        <v>56899</v>
+        <v>44024</v>
       </c>
       <c r="E99" s="4">
-        <v>47256</v>
+        <v>43948</v>
       </c>
       <c r="F99" s="8">
-        <v>3625.4124192486779</v>
+        <v>18</v>
       </c>
       <c r="G99" s="4">
-        <v>44075</v>
+        <v>43946</v>
       </c>
       <c r="H99" s="2">
-        <v>430.02050000000003</v>
+        <v>10.400930000000001</v>
       </c>
       <c r="I99" s="2">
-        <v>428.74380000000002</v>
+        <v>10.72081</v>
       </c>
       <c r="J99" s="6">
-        <v>0.44412220000000002</v>
+        <v>0.5387921</v>
       </c>
       <c r="K99" s="6">
-        <v>0.44577250000000002</v>
+        <v>0.52460779999999996</v>
       </c>
       <c r="L99" s="6">
-        <v>136.39670000000001</v>
+        <v>64.18826</v>
       </c>
       <c r="M99" s="6">
-        <v>133.1652</v>
+        <v>78.323509999999999</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C100" s="8">
-        <v>2089.9180141830898</v>
+        <v>356.25120451923601</v>
       </c>
       <c r="D100" s="4">
-        <v>44038</v>
+        <v>43972</v>
       </c>
       <c r="E100" s="4">
-        <v>44005</v>
+        <v>43936</v>
       </c>
       <c r="F100" s="8">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="G100" s="4">
-        <v>43938</v>
+        <v>43931</v>
       </c>
       <c r="H100" s="2">
-        <v>138.995</v>
+        <v>67.793559999999999</v>
       </c>
       <c r="I100" s="2">
-        <v>129.98840000000001</v>
+        <v>51.887740000000001</v>
       </c>
       <c r="J100" s="6">
-        <v>0.67019189999999995</v>
+        <v>0.29468329999999998</v>
       </c>
       <c r="K100" s="6">
-        <v>0.69156289999999998</v>
+        <v>0.46016570000000001</v>
       </c>
       <c r="L100" s="6">
-        <v>89.59684</v>
+        <v>161.44049999999999</v>
       </c>
       <c r="M100" s="6">
-        <v>97.627300000000005</v>
+        <v>98.478759999999994</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="C101" s="8">
-        <v>18033.506353580698</v>
+        <v>331.77389408986301</v>
       </c>
       <c r="D101" s="4">
-        <v>47595</v>
+        <v>43959</v>
       </c>
       <c r="E101" s="4">
-        <v>47102</v>
+        <v>43920</v>
       </c>
       <c r="F101" s="8">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G101" s="4">
-        <v>43951</v>
+        <v>43914</v>
       </c>
       <c r="H101" s="2">
-        <v>95.884600000000006</v>
+        <v>102.7603</v>
       </c>
       <c r="I101" s="2">
-        <v>93.420649999999995</v>
+        <v>91.134979999999999</v>
       </c>
       <c r="J101" s="6">
-        <v>0.40495370000000003</v>
+        <v>-0.12653130000000001</v>
       </c>
       <c r="K101" s="6">
-        <v>0.42024470000000003</v>
+        <v>9.1357120000000003E-4</v>
       </c>
       <c r="L101" s="6">
-        <v>87.671469999999999</v>
+        <v>117.50539999999999</v>
       </c>
       <c r="M101" s="6">
-        <v>99.092230000000001</v>
+        <v>253.38829999999999</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C102" s="8">
-        <v>757.07881528633095</v>
+        <v>320.16111140064697</v>
       </c>
       <c r="D102" s="4">
-        <v>44074</v>
+        <v>43955</v>
       </c>
       <c r="E102" s="4">
-        <v>43949</v>
+        <v>43940</v>
       </c>
       <c r="F102" s="8">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G102" s="4">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="H102" s="2">
-        <v>68.019900000000007</v>
+        <v>31.85294</v>
       </c>
       <c r="I102" s="2">
-        <v>59.544280000000001</v>
+        <v>27.047260000000001</v>
       </c>
       <c r="J102" s="6">
-        <v>0.17003389999999999</v>
+        <v>0.4211935</v>
       </c>
       <c r="K102" s="6">
-        <v>0.27345180000000002</v>
+        <v>0.50851849999999998</v>
       </c>
       <c r="L102" s="6">
-        <v>99.489400000000003</v>
+        <v>49.74212</v>
       </c>
       <c r="M102" s="6">
-        <v>78.411810000000003</v>
+        <v>71.516689999999997</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C103" s="8">
-        <v>151</v>
+        <v>315.21072758634699</v>
       </c>
       <c r="D103" s="4">
         <v>43955</v>
       </c>
       <c r="E103" s="4">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="F103" s="8">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G103" s="4">
-        <v>43935</v>
+        <v>43925</v>
       </c>
       <c r="H103" s="2">
-        <v>32.065219999999997</v>
+        <v>146.07390000000001</v>
       </c>
       <c r="I103" s="2">
-        <v>11.550509999999999</v>
+        <v>63.22636</v>
       </c>
       <c r="J103" s="6">
-        <v>-0.50613779999999997</v>
+        <v>-0.61684150000000004</v>
       </c>
       <c r="K103" s="6">
-        <v>0.45746009999999998</v>
+        <v>0.30016939999999998</v>
       </c>
       <c r="L103" s="6">
-        <v>45.198990000000002</v>
+        <v>57.426839999999999</v>
       </c>
       <c r="M103" s="6">
-        <v>76.955259999999996</v>
+        <v>147.40379999999999</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C104" s="8">
-        <v>320.16111140064697</v>
+        <v>281</v>
       </c>
       <c r="D104" s="4">
         <v>43955</v>
       </c>
       <c r="E104" s="4">
-        <v>43940</v>
+        <v>43931</v>
       </c>
       <c r="F104" s="8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G104" s="4">
         <v>43925</v>
       </c>
       <c r="H104" s="2">
-        <v>31.85294</v>
+        <v>123.5116</v>
       </c>
       <c r="I104" s="2">
-        <v>27.047260000000001</v>
+        <v>70.73912</v>
       </c>
       <c r="J104" s="6">
-        <v>0.4211935</v>
+        <v>-0.52847829999999996</v>
       </c>
       <c r="K104" s="6">
-        <v>0.50851849999999998</v>
+        <v>0.1245908</v>
       </c>
       <c r="L104" s="6">
-        <v>49.74212</v>
+        <v>53.903280000000002</v>
       </c>
       <c r="M104" s="6">
-        <v>71.516689999999997</v>
+        <v>257.29259999999999</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="C105" s="8">
-        <v>38</v>
+        <v>270.21601040972598</v>
       </c>
       <c r="D105" s="4">
         <v>43955</v>
       </c>
       <c r="E105" s="4">
-        <v>43938</v>
+        <v>43930</v>
       </c>
       <c r="F105" s="8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G105" s="4">
-        <v>43936</v>
+        <v>43913</v>
       </c>
       <c r="H105" s="2">
-        <v>0.90574030000000005</v>
+        <v>8.2502019999999998</v>
       </c>
       <c r="I105" s="2">
-        <v>4.0256220000000003</v>
+        <v>7.4536749999999996</v>
       </c>
       <c r="J105" s="6">
-        <v>0.778532</v>
+        <v>0.57061419999999996</v>
       </c>
       <c r="K105" s="6">
-        <v>1.5670949999999999E-2</v>
+        <v>0.6120698</v>
       </c>
       <c r="L105" s="6">
-        <v>17.217030000000001</v>
+        <v>37.715400000000002</v>
       </c>
       <c r="M105" s="6">
-        <v>54.548990000000003</v>
+        <v>34.028970000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C106" s="8">
-        <v>11.9999998723874</v>
+        <v>268.27747943796402</v>
       </c>
       <c r="D106" s="4">
+        <v>43957</v>
+      </c>
+      <c r="E106" s="4">
         <v>43955</v>
       </c>
-      <c r="E106" s="4">
-        <v>43924</v>
-      </c>
       <c r="F106" s="8">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="G106" s="4">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="H106" s="2">
-        <v>1.0625</v>
+        <v>21.13889</v>
       </c>
       <c r="I106" s="2">
-        <v>0.5625</v>
+        <v>21.13889</v>
       </c>
       <c r="J106" s="6">
-        <v>-0.15254239999999999</v>
+        <v>0.95785980000000004</v>
       </c>
       <c r="K106" s="6">
-        <v>0.38983050000000002</v>
+        <v>0.95785980000000004</v>
       </c>
       <c r="L106" s="6">
-        <v>10.57292</v>
+        <v>29.826519999999999</v>
       </c>
       <c r="M106" s="6">
-        <v>8.0737760000000005</v>
+        <v>29.8308</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C107" s="8">
-        <v>7.0601086759623302</v>
+        <v>252.575542237061</v>
       </c>
       <c r="D107" s="4">
-        <v>43955</v>
+        <v>44001</v>
       </c>
       <c r="E107" s="4">
-        <v>43921</v>
+        <v>43932</v>
       </c>
       <c r="F107" s="8">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G107" s="4">
-        <v>43919</v>
+        <v>43930</v>
       </c>
       <c r="H107" s="2">
-        <v>0.17646129999999999</v>
+        <v>16.124459999999999</v>
       </c>
       <c r="I107" s="2">
-        <v>0.1875</v>
+        <v>16.596340000000001</v>
       </c>
       <c r="J107" s="6">
-        <v>-6.1532299999999998E-2</v>
+        <v>0.26658169999999998</v>
       </c>
       <c r="K107" s="6">
-        <v>-0.1279373</v>
+        <v>0.245118</v>
       </c>
       <c r="L107" s="6">
-        <v>10.576560000000001</v>
+        <v>121.8552</v>
       </c>
       <c r="M107" s="6">
-        <v>6.5972220000000004</v>
+        <v>136.80850000000001</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C108" s="8">
-        <v>10.000000000002601</v>
+        <v>251.08276343937899</v>
       </c>
       <c r="D108" s="4">
         <v>43955</v>
       </c>
       <c r="E108" s="4">
-        <v>43919</v>
+        <v>43938</v>
       </c>
       <c r="F108" s="8">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G108" s="4">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="H108" s="2">
-        <v>0.71428570000000002</v>
+        <v>20.931069999999998</v>
       </c>
       <c r="I108" s="2">
-        <v>0.62829950000000001</v>
+        <v>20.570620000000002</v>
       </c>
       <c r="J108" s="6">
-        <v>-8.6206900000000003E-2</v>
+        <v>0.51917579999999997</v>
       </c>
       <c r="K108" s="6">
-        <v>4.4551380000000002E-2</v>
+        <v>0.52745589999999998</v>
       </c>
       <c r="L108" s="6">
-        <v>6.4682539999999999</v>
+        <v>64.951170000000005</v>
       </c>
       <c r="M108" s="6">
-        <v>26.868680000000001</v>
+        <v>85.508039999999994</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C109" s="8">
-        <v>356.25120451923601</v>
+        <v>229.896578161409</v>
       </c>
       <c r="D109" s="4">
-        <v>43972</v>
+        <v>43956</v>
       </c>
       <c r="E109" s="4">
-        <v>43936</v>
+        <v>43939</v>
       </c>
       <c r="F109" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G109" s="4">
-        <v>43931</v>
+        <v>43937</v>
       </c>
       <c r="H109" s="2">
-        <v>67.793559999999999</v>
+        <v>65.154089999999997</v>
       </c>
       <c r="I109" s="2">
-        <v>51.887740000000001</v>
+        <v>66.67022</v>
       </c>
       <c r="J109" s="6">
-        <v>0.29468329999999998</v>
+        <v>0.15546660000000001</v>
       </c>
       <c r="K109" s="6">
-        <v>0.46016570000000001</v>
+        <v>0.1358143</v>
       </c>
       <c r="L109" s="6">
-        <v>161.44049999999999</v>
+        <v>174.48929999999999</v>
       </c>
       <c r="M109" s="6">
-        <v>98.478759999999994</v>
+        <v>253.68520000000001</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C110" s="8">
-        <v>34.000032681802097</v>
+        <v>202.74405394848199</v>
       </c>
       <c r="D110" s="4">
-        <v>43955</v>
+        <v>44009</v>
       </c>
       <c r="E110" s="4">
-        <v>43947</v>
+        <v>43934</v>
       </c>
       <c r="F110" s="8">
-        <v>1488.7340220893091</v>
+        <v>14</v>
       </c>
       <c r="G110" s="4">
-        <v>43982</v>
+        <v>43928</v>
       </c>
       <c r="H110" s="2">
-        <v>5.6551720000000003</v>
+        <v>7.7285339999999998</v>
       </c>
       <c r="I110" s="2">
-        <v>4.1432609999999999</v>
+        <v>7.9039070000000002</v>
       </c>
       <c r="J110" s="6">
-        <v>-0.32111109999999998</v>
+        <v>0.10618519999999999</v>
       </c>
       <c r="K110" s="6">
-        <v>3.2088310000000002E-2</v>
+        <v>8.5903129999999994E-2</v>
       </c>
       <c r="L110" s="6">
-        <v>29.85894</v>
+        <v>83.720470000000006</v>
       </c>
       <c r="M110" s="6">
-        <v>76.456310000000002</v>
+        <v>104.1682</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C111" s="8">
-        <v>7080.0401925920996</v>
+        <v>155.13825625192601</v>
       </c>
       <c r="D111" s="4">
-        <v>44049</v>
+        <v>43971</v>
       </c>
       <c r="E111" s="4">
-        <v>43989</v>
+        <v>43946</v>
       </c>
       <c r="F111" s="8">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="G111" s="4">
-        <v>43917</v>
+        <v>43932</v>
       </c>
       <c r="H111" s="2">
-        <v>488.45420000000001</v>
+        <v>4.6678889999999997</v>
       </c>
       <c r="I111" s="2">
-        <v>572.76130000000001</v>
+        <v>4.3810560000000001</v>
       </c>
       <c r="J111" s="6">
-        <v>0.88990599999999997</v>
+        <v>0.25836409999999999</v>
       </c>
       <c r="K111" s="6">
-        <v>0.87090380000000001</v>
+        <v>0.30393619999999999</v>
       </c>
       <c r="L111" s="6">
-        <v>30.304819999999999</v>
+        <v>57.428469999999997</v>
       </c>
       <c r="M111" s="6">
-        <v>112.1979</v>
+        <v>65.761719999999997</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C112" s="8">
-        <v>14.000000000014101</v>
+        <v>151</v>
       </c>
       <c r="D112" s="4">
         <v>43955</v>
       </c>
       <c r="E112" s="4">
-        <v>43919</v>
+        <v>43938</v>
       </c>
       <c r="F112" s="8">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G112" s="4">
-        <v>43917</v>
+        <v>43935</v>
       </c>
       <c r="H112" s="2">
-        <v>0.75</v>
+        <v>32.065219999999997</v>
       </c>
       <c r="I112" s="2">
-        <v>0.50034080000000003</v>
+        <v>11.550509999999999</v>
       </c>
       <c r="J112" s="6">
-        <v>-0.1279373</v>
+        <v>-0.50613779999999997</v>
       </c>
       <c r="K112" s="6">
-        <v>0.24752930000000001</v>
+        <v>0.45746009999999998</v>
       </c>
       <c r="L112" s="6">
-        <v>9.1319440000000007</v>
+        <v>45.198990000000002</v>
       </c>
       <c r="M112" s="6">
-        <v>24.05301</v>
+        <v>76.955259999999996</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C113" s="8">
-        <v>15.9999999999837</v>
+        <v>143.452673486744</v>
       </c>
       <c r="D113" s="4">
         <v>43955</v>
       </c>
       <c r="E113" s="4">
-        <v>43919</v>
+        <v>43935</v>
       </c>
       <c r="F113" s="8">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G113" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="H113" s="2">
-        <v>1.0476190000000001</v>
+        <v>13.26122</v>
       </c>
       <c r="I113" s="2">
-        <v>0.32514789999999999</v>
+        <v>9.5183429999999998</v>
       </c>
       <c r="J113" s="6">
-        <v>-0.160804</v>
+        <v>9.9893750000000003E-2</v>
       </c>
       <c r="K113" s="6">
-        <v>0.63972300000000004</v>
+        <v>0.35394199999999998</v>
       </c>
       <c r="L113" s="6">
-        <v>11.90476</v>
+        <v>56.84545</v>
       </c>
       <c r="M113" s="6">
-        <v>7.6814020000000003</v>
+        <v>62.976050000000001</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="C114" s="8">
-        <v>727</v>
+        <v>137.18353571869201</v>
       </c>
       <c r="D114" s="4">
         <v>43955</v>
       </c>
       <c r="E114" s="4">
-        <v>43944</v>
+        <v>43926</v>
       </c>
       <c r="F114" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G114" s="4">
-        <v>43928</v>
+        <v>43903</v>
       </c>
       <c r="H114" s="2">
-        <v>719.5</v>
+        <v>6.2955290000000002</v>
       </c>
       <c r="I114" s="2">
-        <v>140.34280000000001</v>
+        <v>6.2141270000000004</v>
       </c>
       <c r="J114" s="6">
-        <v>-0.71358330000000003</v>
+        <v>0.57050219999999996</v>
       </c>
       <c r="K114" s="6">
-        <v>0.66575519999999999</v>
+        <v>0.57605569999999995</v>
       </c>
       <c r="L114" s="6">
-        <v>70.946389999999994</v>
+        <v>41.705800000000004</v>
       </c>
       <c r="M114" s="6">
-        <v>165.88210000000001</v>
+        <v>49.265410000000003</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C115" s="8">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="D115" s="4">
         <v>43955</v>
       </c>
       <c r="E115" s="4">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="F115" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G115" s="4">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="H115" s="2">
-        <v>0.38636359999999997</v>
+        <v>30.604649999999999</v>
       </c>
       <c r="I115" s="2">
-        <v>0.29695850000000001</v>
+        <v>15.27656</v>
       </c>
       <c r="J115" s="6">
-        <v>-0.29188259999999999</v>
+        <v>-0.4113832</v>
       </c>
       <c r="K115" s="6">
-        <v>7.0610569999999999E-3</v>
+        <v>0.2954967</v>
       </c>
       <c r="L115" s="6">
-        <v>13.257580000000001</v>
+        <v>37.308970000000002</v>
       </c>
       <c r="M115" s="6">
-        <v>31.510819999999999</v>
+        <v>104.8717</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C116" s="8">
-        <v>53056.671658869498</v>
+        <v>132.704706178386</v>
       </c>
       <c r="D116" s="4">
-        <v>44163</v>
+        <v>43955</v>
       </c>
       <c r="E116" s="4">
-        <v>44014</v>
+        <v>43917</v>
       </c>
       <c r="F116" s="8">
-        <v>1335</v>
+        <v>14</v>
       </c>
       <c r="G116" s="4">
-        <v>43932</v>
+        <v>43914</v>
       </c>
       <c r="H116" s="2">
-        <v>10735.42</v>
+        <v>9.9744849999999996</v>
       </c>
       <c r="I116" s="2">
-        <v>10950.32</v>
+        <v>9.0037900000000004</v>
       </c>
       <c r="J116" s="6">
-        <v>0.94333619999999996</v>
+        <v>0.1108252</v>
       </c>
       <c r="K116" s="6">
-        <v>0.94220190000000004</v>
+        <v>0.1973577</v>
       </c>
       <c r="L116" s="6">
-        <v>16.446870000000001</v>
+        <v>79.424229999999994</v>
       </c>
       <c r="M116" s="6">
-        <v>140.9777</v>
+        <v>98.018230000000003</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
+        <v>144</v>
+      </c>
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>127</v>
-      </c>
-      <c r="C117" s="8">
-        <v>8533.6402805928992</v>
-      </c>
       <c r="D117" s="4">
-        <v>44035</v>
+        <v>43955</v>
       </c>
       <c r="E117" s="4">
-        <v>43940</v>
+        <v>43931</v>
       </c>
       <c r="F117" s="8">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="G117" s="4">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="H117" s="2">
-        <v>1732.914</v>
+        <v>6.5584709999999999</v>
       </c>
       <c r="I117" s="2">
-        <v>1787.3620000000001</v>
+        <v>6.56</v>
       </c>
       <c r="J117" s="6">
-        <v>0.79506399999999999</v>
+        <v>0.80298979999999998</v>
       </c>
       <c r="K117" s="6">
-        <v>0.78862489999999996</v>
+        <v>0.80294379999999999</v>
       </c>
       <c r="L117" s="6">
-        <v>187.6532</v>
+        <v>35.623159999999999</v>
       </c>
       <c r="M117" s="6">
-        <v>211.88149999999999</v>
+        <v>35.625439999999998</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="C118" s="8">
-        <v>59.824972084284603</v>
+        <v>112</v>
       </c>
       <c r="D118" s="4">
         <v>43955</v>
       </c>
       <c r="E118" s="4">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="F118" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G118" s="4">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="H118" s="2">
-        <v>2.0962640000000001</v>
+        <v>27.25581</v>
       </c>
       <c r="I118" s="2">
-        <v>3.2276419999999999</v>
+        <v>19.922149999999998</v>
       </c>
       <c r="J118" s="6">
-        <v>0.30067539999999998</v>
+        <v>-0.33139600000000002</v>
       </c>
       <c r="K118" s="6">
-        <v>-7.675854E-2</v>
+        <v>2.6839809999999999E-2</v>
       </c>
       <c r="L118" s="6">
-        <v>23.083400000000001</v>
+        <v>36.861629999999998</v>
       </c>
       <c r="M118" s="6">
-        <v>10.31166</v>
+        <v>153.9068</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="C119" s="8">
-        <v>1134.7489023442199</v>
+        <v>98.192871425220503</v>
       </c>
       <c r="D119" s="4">
         <v>43955</v>
       </c>
       <c r="E119" s="4">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="F119" s="8">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G119" s="4">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="H119" s="2">
-        <v>48.493290000000002</v>
+        <v>10.772119999999999</v>
       </c>
       <c r="I119" s="2">
-        <v>58.698929999999997</v>
+        <v>10.82776</v>
       </c>
       <c r="J119" s="6">
-        <v>0.87971310000000003</v>
+        <v>0.2170513</v>
       </c>
       <c r="K119" s="6">
-        <v>0.8543982</v>
+        <v>0.21300749999999999</v>
       </c>
       <c r="L119" s="6">
-        <v>66.205939999999998</v>
+        <v>75.61797</v>
       </c>
       <c r="M119" s="6">
-        <v>84.529520000000005</v>
+        <v>94.96078</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C120" s="8">
-        <v>4870.7032125862197</v>
+        <v>95.191264358595305</v>
       </c>
       <c r="D120" s="4">
-        <v>44078</v>
+        <v>43955</v>
       </c>
       <c r="E120" s="4">
-        <v>43944</v>
+        <v>43935</v>
       </c>
       <c r="F120" s="8">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="G120" s="4">
-        <v>43942</v>
+        <v>43918</v>
       </c>
       <c r="H120" s="2">
-        <v>601.31870000000004</v>
+        <v>1.1919850000000001</v>
       </c>
       <c r="I120" s="2">
-        <v>598.29849999999999</v>
+        <v>1.0632809999999999</v>
       </c>
       <c r="J120" s="6">
-        <v>0.65705150000000001</v>
+        <v>0.57083430000000002</v>
       </c>
       <c r="K120" s="6">
-        <v>0.65877399999999997</v>
+        <v>0.61717330000000004</v>
       </c>
       <c r="L120" s="6">
-        <v>229.07429999999999</v>
+        <v>21.628039999999999</v>
       </c>
       <c r="M120" s="6">
-        <v>232.18719999999999</v>
+        <v>22.288599999999999</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C121" s="8">
-        <v>49026.707299503301</v>
+        <v>82.038567128373103</v>
       </c>
       <c r="D121" s="4">
-        <v>47587</v>
+        <v>43955</v>
       </c>
       <c r="E121" s="4">
-        <v>46482</v>
+        <v>43911</v>
       </c>
       <c r="F121" s="8">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="G121" s="4">
-        <v>43930</v>
+        <v>43909</v>
       </c>
       <c r="H121" s="2">
-        <v>1650.8340000000001</v>
+        <v>5.8063190000000002</v>
       </c>
       <c r="I121" s="2">
-        <v>1858.4970000000001</v>
+        <v>6.3672800000000001</v>
       </c>
       <c r="J121" s="6">
-        <v>0.73578149999999998</v>
+        <v>0.35493859999999999</v>
       </c>
       <c r="K121" s="6">
-        <v>0.70254459999999996</v>
+        <v>0.29261789999999999</v>
       </c>
       <c r="L121" s="6">
-        <v>43.685020000000002</v>
+        <v>61.225160000000002</v>
       </c>
       <c r="M121" s="6">
-        <v>127.34310000000001</v>
+        <v>61.650329999999997</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C122" s="8">
-        <v>14370.5886027708</v>
+        <v>81.803710106813298</v>
       </c>
       <c r="D122" s="4">
-        <v>44159</v>
+        <v>43955</v>
       </c>
       <c r="E122" s="4">
+        <v>43925</v>
+      </c>
+      <c r="F122" s="8">
+        <v>7</v>
+      </c>
+      <c r="G122" s="4">
         <v>43923</v>
       </c>
-      <c r="F122" s="8">
-        <v>666</v>
-      </c>
-      <c r="G122" s="4">
-        <v>43921</v>
-      </c>
       <c r="H122" s="2">
-        <v>5084.049</v>
+        <v>3.0792359999999999</v>
       </c>
       <c r="I122" s="2">
-        <v>5494.39</v>
+        <v>3.1937039999999999</v>
       </c>
       <c r="J122" s="6">
-        <v>0.64719769999999999</v>
+        <v>0.2215501</v>
       </c>
       <c r="K122" s="6">
-        <v>0.61872260000000001</v>
+        <v>0.19261210000000001</v>
       </c>
       <c r="L122" s="6">
-        <v>543.56539999999995</v>
+        <v>58.44032</v>
       </c>
       <c r="M122" s="6">
-        <v>698.02210000000002</v>
+        <v>73.643119999999996</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C123" s="8">
-        <v>7</v>
+        <v>80.200416998694195</v>
       </c>
       <c r="D123" s="4">
         <v>43955</v>
       </c>
       <c r="E123" s="4">
-        <v>43940</v>
+        <v>43925</v>
       </c>
       <c r="F123" s="8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G123" s="4">
-        <v>43938</v>
+        <v>43923</v>
       </c>
       <c r="H123" s="2">
-        <v>4.7619050000000003E-2</v>
+        <v>6.3737250000000003</v>
       </c>
       <c r="I123" s="2">
-        <v>4.7619050000000003E-2</v>
+        <v>5.0793549999999996</v>
       </c>
       <c r="J123" s="6">
-        <v>0.92258059999999997</v>
+        <v>-1.071213E-2</v>
       </c>
       <c r="K123" s="6">
-        <v>0.92258059999999997</v>
+        <v>0.1945424</v>
       </c>
       <c r="L123" s="6">
-        <v>2.3810470000000001</v>
+        <v>59.8583</v>
       </c>
       <c r="M123" s="6">
-        <v>2.3810470000000001</v>
+        <v>84.251480000000001</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C124" s="8">
-        <v>35113.102803112102</v>
+        <v>75.276134112856894</v>
       </c>
       <c r="D124" s="4">
-        <v>44887</v>
+        <v>43955</v>
       </c>
       <c r="E124" s="4">
-        <v>44409</v>
+        <v>43931</v>
       </c>
       <c r="F124" s="8">
-        <v>545</v>
+        <v>15</v>
       </c>
       <c r="G124" s="4">
-        <v>43941</v>
+        <v>43929</v>
       </c>
       <c r="H124" s="2">
-        <v>3083.788</v>
+        <v>6.6513239999999998</v>
       </c>
       <c r="I124" s="2">
-        <v>3420.7510000000002</v>
+        <v>6.8812530000000001</v>
       </c>
       <c r="J124" s="6">
-        <v>0.87227679999999996</v>
+        <v>0.2194045</v>
       </c>
       <c r="K124" s="6">
-        <v>0.85832059999999999</v>
+        <v>0.19242020000000001</v>
       </c>
       <c r="L124" s="6">
-        <v>29.895209999999999</v>
+        <v>74.548749999999998</v>
       </c>
       <c r="M124" s="6">
-        <v>110.4512</v>
+        <v>83.637770000000003</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="C125" s="8">
-        <v>12988.893187973201</v>
+        <v>73.073226964141895</v>
       </c>
       <c r="D125" s="4">
-        <v>47175</v>
+        <v>43955</v>
       </c>
       <c r="E125" s="4">
-        <v>43944</v>
+        <v>43929</v>
       </c>
       <c r="F125" s="8">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="G125" s="4">
-        <v>43934</v>
+        <v>43923</v>
       </c>
       <c r="H125" s="2">
-        <v>710.91110000000003</v>
+        <v>4.8128979999999997</v>
       </c>
       <c r="I125" s="2">
-        <v>727.48209999999995</v>
+        <v>5.0977790000000001</v>
       </c>
       <c r="J125" s="6">
-        <v>4.9909670000000003E-2</v>
+        <v>0.18863530000000001</v>
       </c>
       <c r="K125" s="6">
-        <v>2.776352E-2</v>
+        <v>0.1406097</v>
       </c>
       <c r="L125" s="6">
-        <v>389.40069999999997</v>
+        <v>61.189720000000001</v>
       </c>
       <c r="M125" s="6">
-        <v>397.69</v>
+        <v>88.4131</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C126" s="8">
-        <v>37302.477468086799</v>
+        <v>59.824972084284603</v>
       </c>
       <c r="D126" s="4">
-        <v>44354</v>
+        <v>43955</v>
       </c>
       <c r="E126" s="4">
-        <v>44086</v>
+        <v>43942</v>
       </c>
       <c r="F126" s="8">
-        <v>1516</v>
+        <v>14</v>
       </c>
       <c r="G126" s="4">
-        <v>43932</v>
+        <v>43939</v>
       </c>
       <c r="H126" s="2">
-        <v>26182.9</v>
+        <v>2.0962640000000001</v>
       </c>
       <c r="I126" s="2">
-        <v>32011.919999999998</v>
+        <v>3.2276419999999999</v>
       </c>
       <c r="J126" s="6">
-        <v>0.75250260000000002</v>
+        <v>0.30067539999999998</v>
       </c>
       <c r="K126" s="6">
-        <v>0.69740290000000005</v>
+        <v>-7.675854E-2</v>
       </c>
       <c r="L126" s="6">
-        <v>41.461300000000001</v>
+        <v>23.083400000000001</v>
       </c>
       <c r="M126" s="6">
-        <v>222.404</v>
+        <v>10.31166</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C127" s="8">
-        <v>143778.73999595299</v>
+        <v>49.000000000000298</v>
       </c>
       <c r="D127" s="4">
-        <v>44835</v>
+        <v>43955</v>
       </c>
       <c r="E127" s="4">
-        <v>44273</v>
+        <v>43916</v>
       </c>
       <c r="F127" s="8">
-        <v>1155.972087139668</v>
+        <v>17</v>
       </c>
       <c r="G127" s="4">
-        <v>43977</v>
+        <v>43914</v>
       </c>
       <c r="H127" s="2">
-        <v>3705.37</v>
+        <v>6.2820510000000001</v>
       </c>
       <c r="I127" s="2">
-        <v>3464.6039999999998</v>
+        <v>4.6274759999999997</v>
       </c>
       <c r="J127" s="6">
-        <v>0.92881570000000002</v>
+        <v>-0.33561639999999998</v>
       </c>
       <c r="K127" s="6">
-        <v>0.93344110000000002</v>
+        <v>1.616014E-2</v>
       </c>
       <c r="L127" s="6">
-        <v>99.137569999999997</v>
+        <v>25.69801</v>
       </c>
       <c r="M127" s="6">
-        <v>90.018330000000006</v>
+        <v>92.714179999999999</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C128" s="8">
-        <v>22102.125103220002</v>
+        <v>38.000000000150798</v>
       </c>
       <c r="D128" s="4">
-        <v>44189</v>
+        <v>43955</v>
       </c>
       <c r="E128" s="4">
-        <v>44053</v>
+        <v>43928</v>
       </c>
       <c r="F128" s="8">
-        <v>523</v>
+        <v>7</v>
       </c>
       <c r="G128" s="4">
-        <v>43933</v>
+        <v>43926</v>
       </c>
       <c r="H128" s="2">
-        <v>1983.893</v>
+        <v>3.8536589999999999</v>
       </c>
       <c r="I128" s="2">
-        <v>2286.6529999999998</v>
+        <v>2.1201210000000001</v>
       </c>
       <c r="J128" s="6">
-        <v>0.91271809999999998</v>
+        <v>-0.28684939999999998</v>
       </c>
       <c r="K128" s="6">
-        <v>0.89939809999999998</v>
+        <v>0.2920297</v>
       </c>
       <c r="L128" s="6">
-        <v>16.827059999999999</v>
+        <v>20.93206</v>
       </c>
       <c r="M128" s="6">
-        <v>87.825810000000004</v>
+        <v>46.27852</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C129" s="8">
-        <v>529686.89311267994</v>
+        <v>38</v>
       </c>
       <c r="D129" s="4">
-        <v>44527</v>
+        <v>43955</v>
       </c>
       <c r="E129" s="4">
-        <v>44100</v>
+        <v>43938</v>
       </c>
       <c r="F129" s="8">
-        <v>7933</v>
+        <v>14</v>
       </c>
       <c r="G129" s="4">
-        <v>43953</v>
+        <v>43936</v>
       </c>
       <c r="H129" s="2">
-        <v>54960.75</v>
+        <v>0.90574030000000005</v>
       </c>
       <c r="I129" s="2">
-        <v>59176.05</v>
+        <v>4.0256220000000003</v>
       </c>
       <c r="J129" s="6">
-        <v>0.98542540000000001</v>
+        <v>0.778532</v>
       </c>
       <c r="K129" s="6">
-        <v>0.9843075</v>
+        <v>1.5670949999999999E-2</v>
       </c>
       <c r="L129" s="6">
-        <v>24.52664</v>
+        <v>17.217030000000001</v>
       </c>
       <c r="M129" s="6">
-        <v>75.91207</v>
+        <v>54.548990000000003</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C130" s="8">
-        <v>135771.70974456999</v>
+        <v>34.0103590448484</v>
       </c>
       <c r="D130" s="4">
-        <v>45009</v>
+        <v>43955</v>
       </c>
       <c r="E130" s="4">
-        <v>44290</v>
+        <v>43940</v>
       </c>
       <c r="F130" s="8">
-        <v>1434.2402802228471</v>
+        <v>6</v>
       </c>
       <c r="G130" s="4">
-        <v>43958</v>
+        <v>43937</v>
       </c>
       <c r="H130" s="2">
-        <v>9184.9930000000004</v>
+        <v>1.318117</v>
       </c>
       <c r="I130" s="2">
-        <v>7506.71</v>
+        <v>1.2664280000000001</v>
       </c>
       <c r="J130" s="6">
-        <v>0.95929350000000002</v>
+        <v>4.015763E-2</v>
       </c>
       <c r="K130" s="6">
-        <v>0.96673140000000002</v>
+        <v>7.7796909999999997E-2</v>
       </c>
       <c r="L130" s="6">
-        <v>154.97630000000001</v>
+        <v>34.304400000000001</v>
       </c>
       <c r="M130" s="6">
-        <v>245.19810000000001</v>
+        <v>50.626399999999997</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C131" s="8">
-        <v>24088.4880744086</v>
+        <v>34.000032681802097</v>
       </c>
       <c r="D131" s="4">
-        <v>44031</v>
+        <v>43955</v>
       </c>
       <c r="E131" s="4">
-        <v>43979</v>
+        <v>43947</v>
       </c>
       <c r="F131" s="8">
-        <v>1515</v>
+        <v>1488.7340220893091</v>
       </c>
       <c r="G131" s="4">
-        <v>43947</v>
+        <v>43982</v>
       </c>
       <c r="H131" s="2">
-        <v>16824.509999999998</v>
+        <v>5.6551720000000003</v>
       </c>
       <c r="I131" s="2">
-        <v>16902.7</v>
+        <v>4.1432609999999999</v>
       </c>
       <c r="J131" s="6">
-        <v>0.82357939999999996</v>
+        <v>-0.32111109999999998</v>
       </c>
       <c r="K131" s="6">
-        <v>0.82275949999999998</v>
+        <v>3.2088310000000002E-2</v>
       </c>
       <c r="L131" s="6">
-        <v>912.30690000000004</v>
+        <v>29.85894</v>
       </c>
       <c r="M131" s="6">
-        <v>1018.384</v>
+        <v>76.456310000000002</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C132" s="8">
-        <v>369.19252059712602</v>
+        <v>24.0462138576993</v>
       </c>
       <c r="D132" s="4">
-        <v>44024</v>
+        <v>43955</v>
       </c>
       <c r="E132" s="4">
-        <v>43948</v>
+        <v>43927</v>
       </c>
       <c r="F132" s="8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G132" s="4">
-        <v>43946</v>
+        <v>43925</v>
       </c>
       <c r="H132" s="2">
-        <v>10.400930000000001</v>
+        <v>1.6005419999999999</v>
       </c>
       <c r="I132" s="2">
-        <v>10.72081</v>
+        <v>1.3787160000000001</v>
       </c>
       <c r="J132" s="6">
-        <v>0.5387921</v>
+        <v>-3.8189300000000002E-2</v>
       </c>
       <c r="K132" s="6">
-        <v>0.52460779999999996</v>
+        <v>0.10569770000000001</v>
       </c>
       <c r="L132" s="6">
-        <v>64.18826</v>
+        <v>22.828279999999999</v>
       </c>
       <c r="M132" s="6">
-        <v>78.323509999999999</v>
+        <v>46.028640000000003</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C133" s="8">
-        <v>1486.3061128341601</v>
+        <v>23</v>
       </c>
       <c r="D133" s="4">
-        <v>44186</v>
+        <v>43955</v>
       </c>
       <c r="E133" s="4">
-        <v>43916</v>
+        <v>43940</v>
       </c>
       <c r="F133" s="8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G133" s="4">
-        <v>43914</v>
+        <v>43938</v>
       </c>
       <c r="H133" s="2">
-        <v>36.246949999999998</v>
+        <v>0.51219510000000001</v>
       </c>
       <c r="I133" s="2">
-        <v>36.649520000000003</v>
+        <v>0.51219510000000001</v>
       </c>
       <c r="J133" s="6">
-        <v>0.39317410000000003</v>
+        <v>0.86193070000000005</v>
       </c>
       <c r="K133" s="6">
-        <v>0.38643440000000001</v>
+        <v>0.86193070000000005</v>
       </c>
       <c r="L133" s="6">
-        <v>116.3083</v>
+        <v>9.9594290000000001</v>
       </c>
       <c r="M133" s="6">
-        <v>132.39449999999999</v>
+        <v>9.9597630000000006</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="C134" s="8">
-        <v>990.67609435402596</v>
+        <v>20</v>
       </c>
       <c r="D134" s="4">
-        <v>44007</v>
+        <v>43955</v>
       </c>
       <c r="E134" s="4">
-        <v>43945</v>
+        <v>43933</v>
       </c>
       <c r="F134" s="8">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="G134" s="4">
-        <v>43942</v>
+        <v>43931</v>
       </c>
       <c r="H134" s="2">
-        <v>179.4699</v>
+        <v>2.451613</v>
       </c>
       <c r="I134" s="2">
-        <v>175.5204</v>
+        <v>1.9570749999999999</v>
       </c>
       <c r="J134" s="6">
-        <v>0.57427530000000004</v>
+        <v>-0.20449899999999999</v>
       </c>
       <c r="K134" s="6">
-        <v>0.58364389999999999</v>
+        <v>3.8472069999999997E-2</v>
       </c>
       <c r="L134" s="6">
-        <v>323.78089999999997</v>
+        <v>16.743469999999999</v>
       </c>
       <c r="M134" s="6">
-        <v>336.23</v>
+        <v>58.679090000000002</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C135" s="8">
-        <v>16425.974195697901</v>
+        <v>17.000000000016001</v>
       </c>
       <c r="D135" s="4">
-        <v>44220</v>
+        <v>43955</v>
       </c>
       <c r="E135" s="4">
-        <v>44070</v>
+        <v>43919</v>
       </c>
       <c r="F135" s="8">
-        <v>445</v>
+        <v>4</v>
       </c>
       <c r="G135" s="4">
-        <v>43938</v>
+        <v>43917</v>
       </c>
       <c r="H135" s="2">
-        <v>2487.9229999999998</v>
+        <v>1.1315789999999999</v>
       </c>
       <c r="I135" s="2">
-        <v>2356.6619999999998</v>
+        <v>0.79215089999999999</v>
       </c>
       <c r="J135" s="6">
-        <v>0.86730499999999999</v>
+        <v>-0.2148699</v>
       </c>
       <c r="K135" s="6">
-        <v>0.87430589999999997</v>
+        <v>0.14954200000000001</v>
       </c>
       <c r="L135" s="6">
-        <v>210.2841</v>
+        <v>14.385960000000001</v>
       </c>
       <c r="M135" s="6">
-        <v>229.0976</v>
+        <v>37.982419999999998</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="C136" s="8">
-        <v>14</v>
+        <v>17.000000000008399</v>
       </c>
       <c r="D136" s="4">
         <v>43955</v>
       </c>
       <c r="E136" s="4">
-        <v>43932</v>
+        <v>43936</v>
       </c>
       <c r="F136" s="8">
-        <v>196.17822227991229</v>
+        <v>4</v>
       </c>
       <c r="G136" s="4">
-        <v>43976</v>
+        <v>43935</v>
       </c>
       <c r="H136" s="2">
-        <v>1.5652170000000001</v>
+        <v>0.9487179</v>
       </c>
       <c r="I136" s="2">
-        <v>0.64334000000000002</v>
+        <v>0.44054529999999997</v>
       </c>
       <c r="J136" s="6">
-        <v>-0.31012659999999997</v>
+        <v>-0.25043330000000003</v>
       </c>
       <c r="K136" s="6">
-        <v>0.46150809999999998</v>
+        <v>0.41935060000000002</v>
       </c>
       <c r="L136" s="6">
-        <v>17.753620000000002</v>
+        <v>15.94017</v>
       </c>
       <c r="M136" s="6">
-        <v>29.374770000000002</v>
+        <v>16.778379999999999</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="C137" s="8">
-        <v>9.0000000000075193</v>
+        <v>17</v>
       </c>
       <c r="D137" s="4">
         <v>43955</v>
       </c>
       <c r="E137" s="4">
-        <v>43914</v>
+        <v>43927</v>
       </c>
       <c r="F137" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G137" s="4">
-        <v>43912</v>
+        <v>43925</v>
       </c>
       <c r="H137" s="2">
-        <v>0.52083330000000005</v>
+        <v>0.95348840000000001</v>
       </c>
       <c r="I137" s="2">
-        <v>0.3320052</v>
+        <v>0.37209300000000001</v>
       </c>
       <c r="J137" s="6">
-        <v>-7.2386060000000002E-2</v>
+        <v>-0.19606509999999999</v>
       </c>
       <c r="K137" s="6">
-        <v>0.31640750000000001</v>
+        <v>0.53324289999999996</v>
       </c>
       <c r="L137" s="6">
-        <v>5.4861110000000002</v>
+        <v>14.341089999999999</v>
       </c>
       <c r="M137" s="6">
-        <v>11.451230000000001</v>
+        <v>12.40352</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C138" s="8">
-        <v>1402</v>
+        <v>15.9999999999837</v>
       </c>
       <c r="D138" s="4">
         <v>43955</v>
       </c>
       <c r="E138" s="4">
-        <v>43948</v>
+        <v>43919</v>
       </c>
       <c r="F138" s="8">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="G138" s="4">
-        <v>43938</v>
+        <v>43916</v>
       </c>
       <c r="H138" s="2">
-        <v>1287.5709999999999</v>
+        <v>1.0476190000000001</v>
       </c>
       <c r="I138" s="2">
-        <v>482.36939999999998</v>
+        <v>0.32514789999999999</v>
       </c>
       <c r="J138" s="6">
-        <v>-0.94854989999999995</v>
+        <v>-0.160804</v>
       </c>
       <c r="K138" s="6">
-        <v>0.270005</v>
+        <v>0.63972300000000004</v>
       </c>
       <c r="L138" s="6">
-        <v>86.524600000000007</v>
+        <v>11.90476</v>
       </c>
       <c r="M138" s="6">
-        <v>180.9153</v>
+        <v>7.6814020000000003</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C139" s="8">
-        <v>2338.8511859988098</v>
+        <v>15.00463497386</v>
       </c>
       <c r="D139" s="4">
-        <v>44199</v>
+        <v>43955</v>
       </c>
       <c r="E139" s="4">
-        <v>43950</v>
+        <v>43916</v>
       </c>
       <c r="F139" s="8">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="G139" s="4">
-        <v>43919</v>
+        <v>43914</v>
       </c>
       <c r="H139" s="2">
-        <v>124.5431</v>
+        <v>0.52279189999999998</v>
       </c>
       <c r="I139" s="2">
-        <v>869.46550000000002</v>
+        <v>0.4429092</v>
       </c>
       <c r="J139" s="6">
-        <v>0.51920330000000003</v>
+        <v>-6.6922159999999994E-2</v>
       </c>
       <c r="K139" s="6">
-        <v>-2.3565589999999998</v>
+        <v>9.6103649999999999E-2</v>
       </c>
       <c r="L139" s="6">
-        <v>100.7163</v>
+        <v>13.75319</v>
       </c>
       <c r="M139" s="6">
-        <v>89.67389</v>
+        <v>25.470880000000001</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B140" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C140" s="8">
-        <v>68670.818085280902</v>
+        <v>15</v>
       </c>
       <c r="D140" s="4">
-        <v>44676</v>
+        <v>43955</v>
       </c>
       <c r="E140" s="4">
-        <v>44242</v>
+        <v>43922</v>
       </c>
       <c r="F140" s="8">
-        <v>812</v>
+        <v>5</v>
       </c>
       <c r="G140" s="4">
-        <v>43946</v>
+        <v>43920</v>
       </c>
       <c r="H140" s="2">
-        <v>5332.9359999999997</v>
+        <v>0.4791665</v>
       </c>
       <c r="I140" s="2">
-        <v>5450.72</v>
+        <v>0.54617190000000004</v>
       </c>
       <c r="J140" s="6">
-        <v>0.90974549999999998</v>
+        <v>0.48095929999999998</v>
       </c>
       <c r="K140" s="6">
-        <v>0.90775209999999995</v>
+        <v>0.40837800000000002</v>
       </c>
       <c r="L140" s="6">
-        <v>20.548030000000001</v>
+        <v>6.1857360000000003</v>
       </c>
       <c r="M140" s="6">
-        <v>151.0367</v>
+        <v>16.364709999999999</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C141" s="8">
-        <v>75.276134112856894</v>
+        <v>15</v>
       </c>
       <c r="D141" s="4">
         <v>43955</v>
       </c>
       <c r="E141" s="4">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="F141" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G141" s="4">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="H141" s="2">
-        <v>6.6513239999999998</v>
+        <v>0.4400038</v>
       </c>
       <c r="I141" s="2">
-        <v>6.8812530000000001</v>
+        <v>0.74419780000000002</v>
       </c>
       <c r="J141" s="6">
-        <v>0.2194045</v>
+        <v>0.48234850000000001</v>
       </c>
       <c r="K141" s="6">
-        <v>0.19242020000000001</v>
+        <v>0.12447320000000001</v>
       </c>
       <c r="L141" s="6">
-        <v>74.548749999999998</v>
+        <v>7.6283690000000002</v>
       </c>
       <c r="M141" s="6">
-        <v>83.637770000000003</v>
+        <v>23.871510000000001</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="C142" s="8">
-        <v>1158074.1158477501</v>
+        <v>14.999999999990701</v>
       </c>
       <c r="D142" s="4">
-        <v>44036</v>
+        <v>43955</v>
       </c>
       <c r="E142" s="4">
-        <v>43926</v>
+        <v>43919</v>
       </c>
       <c r="F142" s="8">
-        <v>113131.3703610899</v>
+        <v>5</v>
       </c>
       <c r="G142" s="4">
-        <v>43961</v>
+        <v>43916</v>
       </c>
       <c r="H142" s="2">
-        <v>4.55</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="I142" s="2">
-        <v>3.227608</v>
+        <v>0.17966460000000001</v>
       </c>
       <c r="J142" s="6">
-        <v>-0.33065260000000002</v>
+        <v>-0.12968299999999999</v>
       </c>
       <c r="K142" s="6">
-        <v>5.6082380000000001E-2</v>
+        <v>0.83431509999999998</v>
       </c>
       <c r="L142" s="6">
-        <v>21.877130000000001</v>
+        <v>10.75</v>
       </c>
       <c r="M142" s="6">
-        <v>86.424750000000003</v>
+        <v>6.7030419999999999</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B143" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C143" s="8">
-        <v>202.74405394848199</v>
+        <v>14.000000000014101</v>
       </c>
       <c r="D143" s="4">
-        <v>44009</v>
+        <v>43955</v>
       </c>
       <c r="E143" s="4">
-        <v>43934</v>
+        <v>43919</v>
       </c>
       <c r="F143" s="8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G143" s="4">
-        <v>43928</v>
+        <v>43917</v>
       </c>
       <c r="H143" s="2">
-        <v>7.7285339999999998</v>
+        <v>0.75</v>
       </c>
       <c r="I143" s="2">
-        <v>7.9039070000000002</v>
+        <v>0.50034080000000003</v>
       </c>
       <c r="J143" s="6">
-        <v>0.10618519999999999</v>
+        <v>-0.1279373</v>
       </c>
       <c r="K143" s="6">
-        <v>8.5903129999999994E-2</v>
+        <v>0.24752930000000001</v>
       </c>
       <c r="L143" s="6">
-        <v>83.720470000000006</v>
+        <v>9.1319440000000007</v>
       </c>
       <c r="M143" s="6">
-        <v>104.1682</v>
+        <v>24.05301</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C144" s="8">
-        <v>3044.4473076035802</v>
+        <v>14</v>
       </c>
       <c r="D144" s="4">
-        <v>43981</v>
+        <v>43955</v>
       </c>
       <c r="E144" s="4">
-        <v>43923</v>
+        <v>43932</v>
       </c>
       <c r="F144" s="8">
-        <v>263</v>
+        <v>196.17822227991229</v>
       </c>
       <c r="G144" s="4">
-        <v>43921</v>
+        <v>43976</v>
       </c>
       <c r="H144" s="2">
-        <v>850.76670000000001</v>
+        <v>1.5652170000000001</v>
       </c>
       <c r="I144" s="2">
-        <v>901.32050000000004</v>
+        <v>0.64334000000000002</v>
       </c>
       <c r="J144" s="6">
-        <v>0.63187819999999995</v>
+        <v>-0.31012659999999997</v>
       </c>
       <c r="K144" s="6">
-        <v>0.61000390000000004</v>
+        <v>0.46150809999999998</v>
       </c>
       <c r="L144" s="6">
-        <v>381.04300000000001</v>
+        <v>17.753620000000002</v>
       </c>
       <c r="M144" s="6">
-        <v>399.024</v>
+        <v>29.374770000000002</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="C145" s="8">
-        <v>23</v>
+        <v>13.000000015538999</v>
       </c>
       <c r="D145" s="4">
         <v>43955</v>
       </c>
       <c r="E145" s="4">
-        <v>43940</v>
+        <v>43946</v>
       </c>
       <c r="F145" s="8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G145" s="4">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="H145" s="2">
-        <v>0.51219510000000001</v>
+        <v>1.322581</v>
       </c>
       <c r="I145" s="2">
-        <v>0.51219510000000001</v>
+        <v>0.85918139999999998</v>
       </c>
       <c r="J145" s="6">
-        <v>0.86193070000000005</v>
+        <v>-0.15335750000000001</v>
       </c>
       <c r="K145" s="6">
-        <v>0.86193070000000005</v>
+        <v>0.25075009999999998</v>
       </c>
       <c r="L145" s="6">
-        <v>9.9594290000000001</v>
+        <v>12.096769999999999</v>
       </c>
       <c r="M145" s="6">
-        <v>9.9597630000000006</v>
+        <v>25.923639999999999</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C146" s="8">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D146" s="4">
         <v>43955</v>
       </c>
       <c r="E146" s="4">
-        <v>43931</v>
+        <v>43921</v>
       </c>
       <c r="F146" s="8">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G146" s="4">
-        <v>43912</v>
+        <v>43919</v>
       </c>
       <c r="H146" s="2">
-        <v>6.5584709999999999</v>
+        <v>0.38636359999999997</v>
       </c>
       <c r="I146" s="2">
-        <v>6.56</v>
+        <v>0.29695850000000001</v>
       </c>
       <c r="J146" s="6">
-        <v>0.80298979999999998</v>
+        <v>-0.29188259999999999</v>
       </c>
       <c r="K146" s="6">
-        <v>0.80294379999999999</v>
+        <v>7.0610569999999999E-3</v>
       </c>
       <c r="L146" s="6">
-        <v>35.623159999999999</v>
+        <v>13.257580000000001</v>
       </c>
       <c r="M146" s="6">
-        <v>35.625439999999998</v>
+        <v>31.510819999999999</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B147" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C147" s="8">
-        <v>1182.1350605467001</v>
+        <v>12.9999999999977</v>
       </c>
       <c r="D147" s="4">
-        <v>44012</v>
+        <v>43955</v>
       </c>
       <c r="E147" s="4">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="F147" s="8">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="G147" s="4">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="H147" s="2">
-        <v>152.9682</v>
+        <v>0.94594590000000001</v>
       </c>
       <c r="I147" s="2">
-        <v>165.95570000000001</v>
+        <v>0.74293359999999997</v>
       </c>
       <c r="J147" s="6">
-        <v>0.49163639999999997</v>
+        <v>-0.15008879999999999</v>
       </c>
       <c r="K147" s="6">
-        <v>0.4484745</v>
+        <v>9.6735219999999997E-2</v>
       </c>
       <c r="L147" s="6">
-        <v>235.6747</v>
+        <v>12.16216</v>
       </c>
       <c r="M147" s="6">
-        <v>240.18379999999999</v>
+        <v>30.757280000000002</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C148" s="8">
-        <v>234218.42174047499</v>
+        <v>12.000000180431</v>
       </c>
       <c r="D148" s="4">
-        <v>45099</v>
+        <v>43955</v>
       </c>
       <c r="E148" s="4">
-        <v>44195</v>
+        <v>43938</v>
       </c>
       <c r="F148" s="8">
-        <v>5138</v>
+        <v>620.91837038527922</v>
       </c>
       <c r="G148" s="4">
-        <v>43933</v>
+        <v>43981</v>
       </c>
       <c r="H148" s="2">
-        <v>226776.7</v>
+        <v>1.714286</v>
       </c>
       <c r="I148" s="2">
-        <v>148516.6</v>
+        <v>1.4525969999999999</v>
       </c>
       <c r="J148" s="6">
-        <v>0.91531680000000004</v>
+        <v>-0.12</v>
       </c>
       <c r="K148" s="6">
-        <v>0.94454079999999996</v>
+        <v>5.0970080000000001E-2</v>
       </c>
       <c r="L148" s="6">
-        <v>30.951000000000001</v>
+        <v>11.09694</v>
       </c>
       <c r="M148" s="6">
-        <v>555.86710000000005</v>
+        <v>42.740110000000001</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C149" s="8">
-        <v>429.28026176876801</v>
+        <v>11.9999998723874</v>
       </c>
       <c r="D149" s="4">
         <v>43955</v>
       </c>
       <c r="E149" s="4">
-        <v>43911</v>
+        <v>43924</v>
       </c>
       <c r="F149" s="8">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G149" s="4">
-        <v>43909</v>
+        <v>43922</v>
       </c>
       <c r="H149" s="2">
-        <v>15.984069999999999</v>
+        <v>1.0625</v>
       </c>
       <c r="I149" s="2">
-        <v>17.174769999999999</v>
+        <v>0.5625</v>
       </c>
       <c r="J149" s="6">
-        <v>0.64593279999999997</v>
+        <v>-0.15254239999999999</v>
       </c>
       <c r="K149" s="6">
-        <v>0.61955720000000003</v>
+        <v>0.38983050000000002</v>
       </c>
       <c r="L149" s="6">
-        <v>74.386790000000005</v>
+        <v>10.57292</v>
       </c>
       <c r="M149" s="6">
-        <v>71.997879999999995</v>
+        <v>8.0737760000000005</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="C150" s="8">
-        <v>1720.1310519971501</v>
+        <v>11</v>
       </c>
       <c r="D150" s="4">
-        <v>44122</v>
+        <v>43955</v>
       </c>
       <c r="E150" s="4">
-        <v>43953</v>
+        <v>43935</v>
       </c>
       <c r="F150" s="8">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="G150" s="4">
-        <v>43951</v>
+        <v>43933</v>
       </c>
       <c r="H150" s="2">
-        <v>716.08960000000002</v>
+        <v>0.68888890000000003</v>
       </c>
       <c r="I150" s="2">
-        <v>719.32860000000005</v>
+        <v>0.62653789999999998</v>
       </c>
       <c r="J150" s="6">
-        <v>0.14439360000000001</v>
+        <v>-9.4976450000000004E-2</v>
       </c>
       <c r="K150" s="6">
-        <v>0.1405236</v>
+        <v>4.1293830000000004E-3</v>
       </c>
       <c r="L150" s="6">
-        <v>511.27609999999999</v>
+        <v>8.5185189999999995</v>
       </c>
       <c r="M150" s="6">
-        <v>539.67150000000004</v>
+        <v>27.83062</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="B151" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C151" s="8">
-        <v>254087.1391269</v>
+        <v>10.000000000002601</v>
       </c>
       <c r="D151" s="4">
-        <v>51845</v>
+        <v>43955</v>
       </c>
       <c r="E151" s="4">
-        <v>47866</v>
+        <v>43919</v>
       </c>
       <c r="F151" s="8">
-        <v>1545</v>
+        <v>4</v>
       </c>
       <c r="G151" s="4">
-        <v>43953</v>
+        <v>43917</v>
       </c>
       <c r="H151" s="2">
-        <v>33145.160000000003</v>
+        <v>0.71428570000000002</v>
       </c>
       <c r="I151" s="2">
-        <v>33708.879999999997</v>
+        <v>0.62829950000000001</v>
       </c>
       <c r="J151" s="6">
-        <v>0.53030529999999998</v>
+        <v>-8.6206900000000003E-2</v>
       </c>
       <c r="K151" s="6">
-        <v>0.52231689999999997</v>
+        <v>4.4551380000000002E-2</v>
       </c>
       <c r="L151" s="6">
-        <v>1842.799</v>
+        <v>6.4682539999999999</v>
       </c>
       <c r="M151" s="6">
-        <v>2079.6979999999999</v>
+        <v>26.868680000000001</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C152" s="8">
-        <v>1314.92074803376</v>
+        <v>10</v>
       </c>
       <c r="D152" s="4">
-        <v>44230</v>
+        <v>43955</v>
       </c>
       <c r="E152" s="4">
-        <v>44194</v>
+        <v>43919</v>
       </c>
       <c r="F152" s="8">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G152" s="4">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="H152" s="2">
-        <v>54.109690000000001</v>
+        <v>0.10714369999999999</v>
       </c>
       <c r="I152" s="2">
-        <v>61.441560000000003</v>
+        <v>0.39285710000000001</v>
       </c>
       <c r="J152" s="6">
-        <v>0.28038649999999998</v>
+        <v>0.70317790000000002</v>
       </c>
       <c r="K152" s="6">
-        <v>0.18287880000000001</v>
+        <v>-8.8339219999999996E-2</v>
       </c>
       <c r="L152" s="6">
-        <v>81.014520000000005</v>
+        <v>5.3784429999999999</v>
       </c>
       <c r="M152" s="6">
-        <v>87.941119999999998</v>
+        <v>6.7857139999999996</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="C153" s="8">
-        <v>1937724.2071279499</v>
+        <v>9.0000000000080096</v>
       </c>
       <c r="D153" s="4">
-        <v>44603</v>
+        <v>43955</v>
       </c>
       <c r="E153" s="4">
-        <v>44057</v>
+        <v>43921</v>
       </c>
       <c r="F153" s="8">
-        <v>48529</v>
+        <v>3</v>
       </c>
       <c r="G153" s="4">
-        <v>43947</v>
+        <v>43918</v>
       </c>
       <c r="H153" s="2">
-        <v>9317963</v>
+        <v>0.3953488</v>
       </c>
       <c r="I153" s="2">
-        <v>13250990</v>
+        <v>0.13743250000000001</v>
       </c>
       <c r="J153" s="6">
-        <v>0.94555699999999998</v>
+        <v>-0.1246154</v>
       </c>
       <c r="K153" s="6">
-        <v>0.92257710000000004</v>
+        <v>0.60905730000000002</v>
       </c>
       <c r="L153" s="6">
-        <v>26.58381</v>
+        <v>7.9457360000000001</v>
       </c>
       <c r="M153" s="6">
-        <v>1568.559</v>
+        <v>4.1910109999999996</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C154" s="8">
-        <v>10</v>
+        <v>9.0000000000075193</v>
       </c>
       <c r="D154" s="4">
         <v>43955</v>
       </c>
       <c r="E154" s="4">
-        <v>43919</v>
+        <v>43914</v>
       </c>
       <c r="F154" s="8">
         <v>4</v>
       </c>
       <c r="G154" s="4">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="H154" s="2">
-        <v>0.10714369999999999</v>
+        <v>0.52083330000000005</v>
       </c>
       <c r="I154" s="2">
-        <v>0.39285710000000001</v>
+        <v>0.3320052</v>
       </c>
       <c r="J154" s="6">
-        <v>0.70317790000000002</v>
+        <v>-7.2386060000000002E-2</v>
       </c>
       <c r="K154" s="6">
-        <v>-8.8339219999999996E-2</v>
+        <v>0.31640750000000001</v>
       </c>
       <c r="L154" s="6">
-        <v>5.3784429999999999</v>
+        <v>5.4861110000000002</v>
       </c>
       <c r="M154" s="6">
-        <v>6.7857139999999996</v>
+        <v>11.451230000000001</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C155" s="8">
-        <v>15</v>
+        <v>7.0601086759623302</v>
       </c>
       <c r="D155" s="4">
         <v>43955</v>
       </c>
       <c r="E155" s="4">
-        <v>43927</v>
+        <v>43921</v>
       </c>
       <c r="F155" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G155" s="4">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="H155" s="2">
-        <v>0.4400038</v>
+        <v>0.17646129999999999</v>
       </c>
       <c r="I155" s="2">
-        <v>0.74419780000000002</v>
+        <v>0.1875</v>
       </c>
       <c r="J155" s="6">
-        <v>0.48234850000000001</v>
+        <v>-6.1532299999999998E-2</v>
       </c>
       <c r="K155" s="6">
-        <v>0.12447320000000001</v>
+        <v>-0.1279373</v>
       </c>
       <c r="L155" s="6">
-        <v>7.6283690000000002</v>
+        <v>10.576560000000001</v>
       </c>
       <c r="M155" s="6">
-        <v>23.871510000000001</v>
+        <v>6.5972220000000004</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C156" s="8">
-        <v>331.77389408986301</v>
+        <v>7</v>
       </c>
       <c r="D156" s="4">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="E156" s="4">
-        <v>43920</v>
+        <v>43940</v>
       </c>
       <c r="F156" s="8">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G156" s="4">
-        <v>43914</v>
+        <v>43938</v>
       </c>
       <c r="H156" s="2">
-        <v>102.7603</v>
+        <v>4.7619050000000003E-2</v>
       </c>
       <c r="I156" s="2">
-        <v>91.134979999999999</v>
+        <v>4.7619050000000003E-2</v>
       </c>
       <c r="J156" s="6">
-        <v>-0.12653130000000001</v>
+        <v>0.92258059999999997</v>
       </c>
       <c r="K156" s="6">
-        <v>9.1357120000000003E-4</v>
+        <v>0.92258059999999997</v>
       </c>
       <c r="L156" s="6">
-        <v>117.50539999999999</v>
+        <v>2.3810470000000001</v>
       </c>
       <c r="M156" s="6">
-        <v>253.38829999999999</v>
+        <v>2.3810470000000001</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="B157" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="C157" s="8">
-        <v>49.000000000000298</v>
+        <v>6</v>
       </c>
       <c r="D157" s="4">
         <v>43955</v>
       </c>
       <c r="E157" s="4">
-        <v>43916</v>
+        <v>43898</v>
       </c>
       <c r="F157" s="8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G157" s="4">
-        <v>43914</v>
+        <v>43896</v>
       </c>
       <c r="H157" s="2">
-        <v>6.2820510000000001</v>
+        <v>8.77193E-2</v>
       </c>
       <c r="I157" s="2">
-        <v>4.6274759999999997</v>
+        <v>0.1052632</v>
       </c>
       <c r="J157" s="6">
-        <v>-0.33561639999999998</v>
+        <v>6.8627450000000007E-2</v>
       </c>
       <c r="K157" s="6">
-        <v>1.616014E-2</v>
+        <v>-0.1176471</v>
       </c>
       <c r="L157" s="6">
-        <v>25.69801</v>
+        <v>4.3859690000000002</v>
       </c>
       <c r="M157" s="6">
-        <v>92.714179999999999</v>
+        <v>5.2631579999999998</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C158" s="8">
-        <v>270.21601040972598</v>
+        <v>6</v>
       </c>
       <c r="D158" s="4">
         <v>43955</v>
       </c>
       <c r="E158" s="4">
-        <v>43930</v>
+        <v>43953</v>
       </c>
       <c r="F158" s="8">
-        <v>26</v>
+        <v>115.42350202550411</v>
       </c>
       <c r="G158" s="4">
-        <v>43913</v>
+        <v>43975</v>
       </c>
       <c r="H158" s="2">
-        <v>8.2502019999999998</v>
+        <v>1.181818</v>
       </c>
       <c r="I158" s="2">
-        <v>7.4536749999999996</v>
+        <v>4.5454550000000003E-2</v>
       </c>
       <c r="J158" s="6">
-        <v>0.57061419999999996</v>
+        <v>-6.7164180000000004E-2</v>
       </c>
       <c r="K158" s="6">
-        <v>0.6120698</v>
+        <v>0.95895520000000001</v>
       </c>
       <c r="L158" s="6">
-        <v>37.715400000000002</v>
+        <v>6.0606059999999999</v>
       </c>
       <c r="M158" s="6">
-        <v>34.028970000000001</v>
+        <v>2.2729490000000001</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="C159" s="8">
-        <v>6</v>
+        <v>3.9999999999106199</v>
       </c>
       <c r="D159" s="4">
         <v>43955</v>
       </c>
       <c r="E159" s="4">
-        <v>43953</v>
+        <v>43925</v>
       </c>
       <c r="F159" s="8">
-        <v>115.42350202550411</v>
+        <v>2</v>
       </c>
       <c r="G159" s="4">
-        <v>43975</v>
+        <v>43923</v>
       </c>
       <c r="H159" s="2">
-        <v>1.181818</v>
+        <v>0.13333329999999999</v>
       </c>
       <c r="I159" s="2">
-        <v>4.5454550000000003E-2</v>
+        <v>0.13333329999999999</v>
       </c>
       <c r="J159" s="6">
-        <v>-6.7164180000000004E-2</v>
+        <v>-0.15384619999999999</v>
       </c>
       <c r="K159" s="6">
-        <v>0.95895520000000001</v>
+        <v>-0.15384619999999999</v>
       </c>
       <c r="L159" s="6">
-        <v>6.0606059999999999</v>
+        <v>6.6666670000000003</v>
       </c>
       <c r="M159" s="6">
-        <v>2.2729490000000001</v>
+        <v>6.6666670000000003</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="C160" s="8">
-        <v>34.0103590448484</v>
+        <v>1.0000000000000699</v>
       </c>
       <c r="D160" s="4">
         <v>43955</v>
       </c>
       <c r="E160" s="4">
-        <v>43940</v>
+        <v>43919</v>
       </c>
       <c r="F160" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G160" s="4">
-        <v>43937</v>
+        <v>43917</v>
       </c>
       <c r="H160" s="2">
-        <v>1.318117</v>
+        <v>2.7777779999999998E-2</v>
       </c>
       <c r="I160" s="2">
-        <v>1.2664280000000001</v>
+        <v>4.4621259999999998E-29</v>
       </c>
       <c r="J160" s="6">
-        <v>4.015763E-2</v>
+        <v>-2.8571429999999998E-2</v>
       </c>
       <c r="K160" s="6">
-        <v>7.7796909999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="L160" s="6">
-        <v>34.304400000000001</v>
+        <v>1.388889</v>
       </c>
       <c r="M160" s="6">
-        <v>50.626399999999997</v>
+        <v>5.6186470000000003E-14</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="C161" s="8">
-        <v>6734075.0334323803</v>
+        <v>0</v>
       </c>
       <c r="D161" s="4">
-        <v>45320</v>
+        <v>43955</v>
       </c>
       <c r="E161" s="4">
-        <v>44115</v>
+        <v>43949</v>
       </c>
       <c r="F161" s="8">
-        <v>101716</v>
+        <v>6</v>
       </c>
       <c r="G161" s="4">
         <v>43947</v>
       </c>
       <c r="H161" s="2">
-        <v>29060870</v>
+        <v>0</v>
       </c>
       <c r="I161" s="2">
-        <v>49201420</v>
+        <v>4.1171099999999998E-122</v>
       </c>
       <c r="J161" s="6">
-        <v>0.97510580000000002</v>
+        <v>1</v>
       </c>
       <c r="K161" s="6">
-        <v>0.95785299999999995</v>
+        <v>0</v>
       </c>
       <c r="L161" s="6">
-        <v>47.532719999999998</v>
+        <v>0</v>
       </c>
       <c r="M161" s="6">
-        <v>63.361280000000001</v>
+        <v>2.0288320000000002E-59</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="C162" s="8">
-        <v>705.15389170144203</v>
+        <v>-1.20463478463119E-168</v>
       </c>
       <c r="D162" s="4">
-        <v>43901</v>
+        <v>43949</v>
       </c>
       <c r="E162" s="4">
-        <v>43879</v>
+        <v>43863</v>
       </c>
       <c r="F162" s="8">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G162" s="4">
-        <v>43877</v>
+        <v>43861</v>
       </c>
       <c r="H162" s="2">
-        <v>388.51400000000001</v>
+        <v>0</v>
       </c>
       <c r="I162" s="2">
-        <v>362.56439999999998</v>
+        <v>1.312563E-34</v>
       </c>
       <c r="J162" s="6">
-        <v>0.4419034</v>
+        <v>1</v>
       </c>
       <c r="K162" s="6">
-        <v>0.47917979999999999</v>
+        <v>0</v>
       </c>
       <c r="L162" s="6">
-        <v>323.41370000000001</v>
+        <v>1.0944560000000001E-166</v>
       </c>
       <c r="M162" s="6">
-        <v>348.88639999999998</v>
+        <v>7.3125650000000001E-16</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M162">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
